--- a/ipa_2/myUtils/instructions.xlsx
+++ b/ipa_2/myUtils/instructions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B27366A-A904-4918-8D97-E9268893D8F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBE5225-8DB6-49C0-8E78-9C9826264AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="302" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-1740" windowWidth="23256" windowHeight="12456" tabRatio="302" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="168">
   <si>
     <t>phase</t>
   </si>
@@ -550,6 +550,72 @@
   </si>
   <si>
     <t>מעולה! כעת, ענה על השאלות שמופיעות מטה. בכל שאלה תצטרך לומר כמה אתה או האדם האחר יקבלו עבור שילוב מסוים של שתי אפשרויות, הבחירה שלך והבחירה של האחר.</t>
+  </si>
+  <si>
+    <t>gameCompetitive</t>
+  </si>
+  <si>
+    <t>gameCooperative</t>
+  </si>
+  <si>
+    <t>משחק היריות</t>
+  </si>
+  <si>
+    <t>משחק העזרה</t>
+  </si>
+  <si>
+    <t>helpAction</t>
+  </si>
+  <si>
+    <t>ignoreAction</t>
+  </si>
+  <si>
+    <t>shootAction</t>
+  </si>
+  <si>
+    <t>לירות</t>
+  </si>
+  <si>
+    <t>לעזור</t>
+  </si>
+  <si>
+    <t>להתעלם</t>
+  </si>
+  <si>
+    <t>youChose</t>
+  </si>
+  <si>
+    <t>בחרת</t>
+  </si>
+  <si>
+    <t>בפרופיל זה</t>
+  </si>
+  <si>
+    <t>shootThisProfile</t>
+  </si>
+  <si>
+    <t>helpThisProfile</t>
+  </si>
+  <si>
+    <t>ignoreThisProfile</t>
+  </si>
+  <si>
+    <t>לפרופיל זה</t>
+  </si>
+  <si>
+    <t>מפרופיל זה</t>
+  </si>
+  <si>
+    <t>setAName</t>
+  </si>
+  <si>
+    <t>setBName</t>
+  </si>
+  <si>
+    <t>סט מאפיינם ותכונות</t>
+  </si>
+  <si>
+    <t>סט העדפת צורות</t>
   </si>
 </sst>
 </file>
@@ -913,10 +979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -952,42 +1018,43 @@
       <c r="I1" s="2"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>64</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>91</v>
+        <v>164</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>92</v>
+        <v>166</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>92</v>
+        <v>166</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+        <v>166</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>64</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>65</v>
+        <v>167</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>65</v>
+        <v>167</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>65</v>
+        <v>167</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -995,21 +1062,21 @@
       <c r="I3" s="2"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>64</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1017,21 +1084,21 @@
       <c r="I4" s="2"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>64</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>96</v>
+        <v>149</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>96</v>
+        <v>149</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>96</v>
+        <v>149</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1039,43 +1106,42 @@
       <c r="I5" s="2"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>64</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>64</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>89</v>
+        <v>66</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1083,21 +1149,21 @@
       <c r="I7" s="2"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>64</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1105,21 +1171,21 @@
       <c r="I8" s="2"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>64</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1127,21 +1193,21 @@
       <c r="I9" s="2"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>64</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1149,126 +1215,130 @@
       <c r="I10" s="2"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -1280,249 +1350,249 @@
         <v>1</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="270" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>134</v>
+        <v>61</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>134</v>
+        <v>61</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>55</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="270" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F22" s="4"/>
+        <v>135</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>106</v>
+        <v>72</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>34</v>
+        <v>8</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>106</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>40</v>
+        <v>8</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -1534,7 +1604,7 @@
         <v>11</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>40</v>
@@ -1555,79 +1625,79 @@
         <v>11</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>40</v>
+        <v>31</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>111</v>
+        <v>32</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>48</v>
+        <v>13</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>48</v>
+        <v>14</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -1636,546 +1706,777 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>49</v>
+        <v>15</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>136</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>33</v>
+        <v>8</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>34</v>
+        <v>43</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
     </row>
-    <row r="42" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="F42" s="4"/>
+        <v>136</v>
+      </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>131</v>
+        <v>31</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>123</v>
+        <v>32</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>126</v>
+        <v>59</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
     </row>
-    <row r="48" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>74</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+    </row>
+    <row r="59" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B60" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C61" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D61" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E61" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
+    <row r="62" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B62" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C62" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D51" s="12" t="s">
+      <c r="D62" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="E51" s="12" t="s">
+      <c r="E62" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>115</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B63" t="s">
         <v>8</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C63" t="s">
         <v>138</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D63" t="s">
         <v>138</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E63" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>115</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B64" t="s">
         <v>8</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C64" t="s">
         <v>143</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D64" t="s">
         <v>143</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E64" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="65" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>115</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B65" t="s">
         <v>8</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C65" t="s">
         <v>144</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D65" t="s">
         <v>144</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E65" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>115</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B66" t="s">
         <v>8</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C66" t="s">
         <v>145</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D66" t="s">
         <v>145</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E66" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>115</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B67" t="s">
         <v>116</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C67" t="s">
         <v>119</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D67" t="s">
         <v>119</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E67" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>115</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B68" t="s">
         <v>117</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C68" t="s">
         <v>121</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D68" t="s">
         <v>121</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E68" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>115</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B69" t="s">
         <v>140</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C69" t="s">
         <v>139</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D69" t="s">
         <v>139</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E69" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>115</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B70" t="s">
         <v>141</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C70" t="s">
         <v>142</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D70" t="s">
         <v>142</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E70" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>115</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B71" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C71" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D71" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="E71" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>115</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B72" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C72" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="D72" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="E72" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ipa_2/myUtils/instructions.xlsx
+++ b/ipa_2/myUtils/instructions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBE5225-8DB6-49C0-8E78-9C9826264AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A0FCD4-9CDF-4C92-A9CD-A16225C7CC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-1740" windowWidth="23256" windowHeight="12456" tabRatio="302" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="302" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="124">
   <si>
     <t>phase</t>
   </si>
@@ -74,21 +74,6 @@
     <t>Pre Identification Task</t>
   </si>
   <si>
-    <t>Get Min Max Similarity</t>
-  </si>
-  <si>
-    <t>MaxName</t>
-  </si>
-  <si>
-    <t>MinName</t>
-  </si>
-  <si>
-    <t>MaxValue</t>
-  </si>
-  <si>
-    <t>MinValue</t>
-  </si>
-  <si>
     <t>text_he_male</t>
   </si>
   <si>
@@ -156,34 +141,10 @@
     <t>דמיון גבוה ביותר</t>
   </si>
   <si>
-    <t>askMax</t>
-  </si>
-  <si>
-    <t>askMin</t>
-  </si>
-  <si>
-    <t>reportMaxSimilarity</t>
-  </si>
-  <si>
-    <t>reportMinSimilarity</t>
-  </si>
-  <si>
     <t>End Screen</t>
   </si>
   <si>
-    <t>---</t>
-  </si>
-  <si>
-    <t>Pre Get Max Profile</t>
-  </si>
-  <si>
-    <t>Pre Get Min Profile</t>
-  </si>
-  <si>
     <t>onError</t>
-  </si>
-  <si>
-    <t>Pre Get Ideal Profile</t>
   </si>
   <si>
     <t>A</t>
@@ -224,14 +185,6 @@
     <t>טופס הסכמה</t>
   </si>
   <si>
-    <t>וכעת תתבקש לענות על אותן השאלות פעם נוספת, והפעם עבור {}, האדם שציינת &lt;strong&gt;כהכי פחות דומה לך&lt;/strong&gt;. כמובן, שאינך יכול לדעת את התשובות במדויק, לכן נסה לחשוב מה תהיה השתובה של {}, לדעתך.
-&lt;br&gt;יש ללחוץ על הסמן על מנת לבחור את המיקום על הסקאלה. לאחר בחירת מיקום הסמן, לחץ על הכפתור אשר יופיע בתחתית המסך.</t>
-  </si>
-  <si>
-    <t>וכעת תתבקשי לענות על אותן השאלות פעם נוספת, והפעם עבור {}, האדם שציינת &lt;strong&gt;כהכי פחות דומה לך&lt;/strong&gt;. כמובן, שאינך יכולה לדעת את התשובות במדויק, לכן נסי לחשוב מה תהיה השתובה של {}, לדעתך.
-&lt;br&gt;יש ללחוץ על הסמן על מנת לבחור את המיקום על הסקאלה. לאחר בחירת מיקום הסמן, לחצי על הכפתור אשר יופיע בתחתית המסך.</t>
-  </si>
-  <si>
     <t>beforeNewProfile</t>
   </si>
   <si>
@@ -254,30 +207,6 @@
   </si>
   <si>
     <t>nextButtonText</t>
-  </si>
-  <si>
-    <t>מבין כל האנשים שאתה יכול לחשוב עליהם, בחר את האדם, הדומה לך ביותר מבחינת כל התכונות והמאפיינים. 
-קח את הזמן וחשוב היטב, רק לאחר שאתה בטוח בבחירתך, רשום את ראשי התיבות של שמו.ה</t>
-  </si>
-  <si>
-    <t>כעת, מבין כל האנשים שאתה יכול לחשוב עליהם, בחר את האדם הכי פחות דומה לך מבחינת כל התכונות והמאפיינים. 
-קח את הזמן וחשוב היטב, רק לאחר שאתה בטוח בבחירתך, רשום כאן את ראשי התיבות של שמו.ה</t>
-  </si>
-  <si>
-    <t>כעת, מבין כל האנשים שאתה יכול לחשוב עליהם, בחר את האדם הכי פחות דומה לך מבחינת כל התכונות והמאפיינים. 
-קח את הזמן וחשוב היטב, רק לאחר שאתה בטוח בבחירתך, רשום כאן את ראשי התיבות של שמו או של שמה</t>
-  </si>
-  <si>
-    <t>כעת, מבין כל האנשים שאת יכול לחשוב עליהם, בחרי את האדם הכי פחות דומה לך מבחינת כל התכונות והמאפיינים. 
-קחי את הזמן וחשבי היטב, רק לאחר שאת בטוחה בבחירתך, רשמי כאן את ראשי התיבות של שמו או של שמה</t>
-  </si>
-  <si>
-    <t>מבין כל האנשים שאת יכול לחשוב עליהם, בחרי את האדם, הדומה לך ביותר מבחינת כל התכונות והמאפיינים. 
-קחי את הזמן וחשבי היטב, רק לאחר שאת בטוחה בבחירתך, רשמי כאן את ראשי התיבות של שמו או של שמה</t>
-  </si>
-  <si>
-    <t>מבין כל האנשים שאתה יכול לחשוב עליהם, בחר את האדם, הדומה לך ביותר מבחינת כל התכונות והמאפיינים. 
-קח את הזמן וחשוב היטב, רק לאחר שאתה בטוח בבחירתך, רשום את ראשי התיבות של שמו או של שמה</t>
   </si>
   <si>
     <t>endTitle</t>
@@ -355,26 +284,6 @@
   </si>
   <si>
     <t>המשך לפרופיל הבא</t>
-  </si>
-  <si>
-    <t xml:space="preserve">חשוֹב על {}, האדם שציינת כדומה לך ביותר. חשוב עד כמה אתה מרגיש שאתה ו-{} דומים.
-אנא דרג את מידת הדמיון בינך לבין {}. השתמש בכפתורים "+" או "-" על מנת להגדיל או להקטין את מידת החפיפה בין העיגולים.
-ככל שמידת החפיפה גדולה יותר, כך מידת הדמיון בינכם גדולה יותר. השתמש בשני הכפתורים עד שתגיע לחפיפה המדויקת ביותר לדעתך. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">חִשבי על {}, האדם שציינת כדומה לך ביותר. חשבי עד כמה את מרגישה שאת ו-{} דומים.
-אנא דרגי את מידת הדמיון בינך לבין {}. השתמשי בכפתורים "+" או "-" על מנת להגדיל או להקטין את מידת החפיפה בין העיגולים.  
-ככל שמידת החפיפה גדולה יותר, כך מידת הדמיון בינכם גדולה יותר. השתמשי בשני הכפתורים עד שתגיעי לחפיפה המדויקת ביותר לדעתך. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">חִשבי על {}, האדם שציינת כהכי פחות דומה לך. חשבי עד כמה את מרגישה שאת ו-{} דומים.
-אנא דרגי את מידת הדמיון בינך לבין {}. השתמשי בכפתורים "+" או "-" על מנת להגדיל או להקטין את מידת החפיפה בין העיגולים.  
-ככל שמידת החפיפה גדולה יותר, כך מידת הדמיון בינכם גדולה יותר. השתמשי בשני הכפתורים עד שתגיעי לחפיפה המדויקת ביותר לדעתך. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">חשוֹב על {}, האדם שציינת כהכי פחות דומה לך. חשוב עד כמה אתה מרגיש שאתה ו-{} דומים.
-אנא דרג את מידת הדמיון בינך לבין {}. השתמש בכפתורים "+" או "-" על מנת להגדיל או להקטין את מידת החפיפה בין העיגולים.
-ככל שמידת החפיפה גדולה יותר, כך מידת הדמיון בינכם גדולה יותר. השתמש בשני הכפתורים עד שתגיע לחפיפה המדויקת ביותר לדעתך. </t>
   </si>
   <si>
     <t>הדירוגים שסיפקת יוצרים פרופיל אישי שלך וכך גם דירוגיהם של המשתתפים הנוספים בניסוי.
@@ -393,28 +302,10 @@
 &lt;br&gt; שים לב, ייתכן גם ואף אחד מהפרופילים לא יהיה הפרופיל שלך, במקרה כזה לחץ על הכפתור האמצעי שבו יהיה רשום "אף אחד מהנ''ל". הקפד לבחון את כלל המאפיינים של כל פרופיל לפני שתגיע להחלטה.</t>
   </si>
   <si>
-    <t>כעת תתבקש לענות על אותן השאלות, אלו שקודם ענית עבור עצמך, אך הפעם עבור {}, האדם שציינת &lt;strong&gt; כדומה לך ביותר&lt;/strong&gt;. כמובן, שאינך יכול לדעת את התשובות במדויק, לכן נסה לחשוב מה תהיה התשובה של {}, לדעתך.
-&lt;br&gt;יש ללחוץ על הסמן על מנת לבחור את המיקום על הסקאלה. לאחר בחירת מיקום הסמן, לחץ על הכפתור אשר יופיע בתחתית המסך.</t>
-  </si>
-  <si>
-    <t>כעת תתבקשי לענות על אותן השאלות, אלו שקודם ענית עבור עצמך, אך הפעם עבור {}, האדם שציינת &lt;strong&gt; כדומה לך ביותר&lt;/strong&gt;. כמובן, שאינך יכולה לדעת את התשובות במדויק, לכן נסי לחשוב מה תהיה התשובה של {}, לדעתך. 
-&lt;br&gt;יש ללחוץ על הסמן על מנת לבחור את המיקום על הסקאלה. לאחר בחירת מיקום הסמן, לחצי על הכפתור אשר יופיע בתחתית המסך.</t>
-  </si>
-  <si>
     <t>מיוד יוצג פרופיל של משתתף חדש. התבונן היטב בהעדפות והמאפיינים השונים ונסה להכיר את אותו אדם.</t>
   </si>
   <si>
     <t>מיוד יוצג פרופיל של משתתף חדש. התבונני היטב בהעדפות והמאפיינים השונים ונסי להכיר את אותו אדם.</t>
-  </si>
-  <si>
-    <t>בחלק זה של הניסוי זה תתבקש לדרג את המאפיינים שלך, אלא שהפעם תתבקש לדרג את המאפיינים, לא כפי שאתה כעת, אלא כפי שהיית רוצה להיות באופן אידאלי.&lt;br&gt;
-התשובה לשאלות תעשה על ידי הזזה של סמן הנמצא בין שני קצוות, כך שהמקום אותו תבחר יתאר את המקום אליו אתה שואף וכיצד היית רוצה להיות במצב אידאלי.&lt;br&gt;
-יש ללחוץ על הסמן על מנת לבחור את המיקום על הסקאלה. לאחר בחירת מיקום הסמן, לחץ על הכפתור אשר יופיע בתחתית המסך.</t>
-  </si>
-  <si>
-    <t>בחלק זה של הניסוי זה תתבקשי לדרג את המאפיינים שלך, אלא שהפעם תתבקשי לדרג את המאפיינים, לא כפי שאת כעת, אלא כפי שהיית רוצה להיות באופן אידאלי.&lt;br&gt;
-התשובה לשאלות תעשה על ידי הזזה של סמן הנמצא בין שני קצוות, כך שהמקום אותו תבחרי יתאר את המקום אליו את שואפת וכיצד היית רוצה להיות במצב אידאלי.&lt;br&gt;
-יש ללחוץ על הסמן על מנת לבחור את המיקום על הסקאלה. לאחר בחירת מיקום הסמן, לחצי על הכפתור אשר יופיע בתחתית המסך.</t>
   </si>
   <si>
     <t>בחלק זה של הניסוי זה תתבקשי לענות על מספר שאלות.
@@ -435,27 +326,6 @@
   </si>
   <si>
     <t>לאחר ששני הפרופילים יוצגו בפניך ולאחר השהייה קצרה, יופיעו הכפתורים בעזרתם תוכל לבחור מה הוא הפרופיל שלך, או לציין שאף אחד מהפרופילים אינו שלך. קח את כל הזמן הדרוש לך לביצוע המטלה.</t>
-  </si>
-  <si>
-    <t>Matrix tutorial</t>
-  </si>
-  <si>
-    <t>You</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>במידה ואת תבחרי - {} - והאדם השני יבחר - {}, כמה את תקבלי?</t>
-  </si>
-  <si>
-    <t>במידה ואתה תבחר - {} - והאדם השני יבחר - {}, כמה אתה תקבל?</t>
-  </si>
-  <si>
-    <t>במידה ואת תבחרי - {} - והאדם השני יבחר - {}, כמה האדם השני יקבל?</t>
-  </si>
-  <si>
-    <t>במידה ואתה תבחר - {} - והאדם השני יבחר - {}, כמה האדם השני יקבל?</t>
   </si>
   <si>
     <t>ExplanationTexts</t>
@@ -526,30 +396,6 @@
     <t>במהלך הניסוי תצפה במספר פרופילים כאלו, ואל מול כל אחד מהם תצטרך להחליט באיזו פעולה לנקוט. כלומר מדובר כל פעם בסיטואציה חדשה ובבחירה שתצטרך לעשות אל מול אותו אדם שבפרופיל שלו צפית.
 &lt;br&gt; בסוף הניסוי צוות המחקר ידגום באופן אקראי את אחת מהחלטותיך אל מול אדם מסוים, ויחושבו התוצאות בהתאם לפעולות אשר אתה והאדם השני בחרתם בהן. התוצאה הזו תקבע את גובה הבונוס הכספי שתוכל לקבל! 
 &lt;br&gt; ככל שתקבל תוצאה גבוהה יותר, הבונוס הכספי שלך יהיה גדול יותר!</t>
-  </si>
-  <si>
-    <t>כפי שאתה מילאת את התכונות והמאפיינים שלך כך גם עשו משתתפים אחרים ובמהלך הניסוי יוצגו לך הפרופילים שלהם. לאחר שתתבונן בפרופיל של כל אדם, תוצג בפניך סיטואציה אשר בה קיימות שתי אפשרויות לפעולה  עבורך ושתי אפשרויות לפעולה עבור האדם השני. עבור כל שילוב של שתי בחירות ישנה תוצאה אשר מיוצגת במספר, תוצאה עבורך ותוצאה עבור האחר. לחץ על הכפתור "הצג טבלה" על מנת להתבונן בטבלה.</t>
-  </si>
-  <si>
-    <t>הצג טבלה</t>
-  </si>
-  <si>
-    <t>presentTableButton</t>
-  </si>
-  <si>
-    <t>NextStep</t>
-  </si>
-  <si>
-    <t>השלב הבא</t>
-  </si>
-  <si>
-    <t>כעת, לצורך הדוגמה, אתה יכול לבחור בין {} , לבין {} וכך גם האדם השני. כל אחד מכם בוחר לפי ראות עיניו, ומתוך הניסיון להגיע לתוצאה הטובה ביותר עבורו. אתה יכול לבחור או בשורה הראשונה ({}) או בשורה השניה ({}). כך גם האדם השני יכול לבחור בין הטור הימני לשמאלי. בכל צירוף של שתי בחירות רשום כמה אתה תקבל וכמה האחר. התוצאה שלך רשומה תמיד מצד שמאל. לצורך בדיקת הבנה - בחר כעת את השורה התחונה - {}.</t>
-  </si>
-  <si>
-    <t>יפה מאוד! כאשר אתה לוחץ על אחת השורות, זה אומר שבחרת באפשרות הזו. כמה שתקבל תלוי במה יבחר האדם השני. בזמן שאתה מבצע את בחירתך אינך יכול לראות מה האדם השני בחר, אך גם כשאר השחקן השני בוחר, אתה לא יכול לראות את הבחירה שלו. התוצאות יקבעו רק לאחר מכן. בוא נמשיך בלמידה - לחץ עכשיו על האופציה העליונה.</t>
-  </si>
-  <si>
-    <t>מעולה! כעת, ענה על השאלות שמופיעות מטה. בכל שאלה תצטרך לומר כמה אתה או האדם האחר יקבלו עבור שילוב מסוים של שתי אפשרויות, הבחירה שלך והבחירה של האחר.</t>
   </si>
   <si>
     <t>gameCompetitive</t>
@@ -659,7 +505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -679,12 +525,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -979,22 +819,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J72"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" customWidth="1"/>
-    <col min="3" max="3" width="51.28515625" customWidth="1"/>
-    <col min="4" max="4" width="48.42578125" customWidth="1"/>
-    <col min="5" max="5" width="49.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.5546875" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" customWidth="1"/>
+    <col min="3" max="3" width="51.33203125" customWidth="1"/>
+    <col min="4" max="4" width="48.44140625" customWidth="1"/>
+    <col min="5" max="5" width="49.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1005,34 +845,34 @@
         <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>166</v>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>122</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1040,21 +880,21 @@
       <c r="I2" s="2"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>167</v>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>123</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -1062,21 +902,21 @@
       <c r="I3" s="2"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>148</v>
+    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1084,21 +924,21 @@
       <c r="I4" s="2"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>149</v>
+    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>105</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1106,42 +946,42 @@
       <c r="I5" s="2"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>65</v>
+    <row r="6" spans="1:10" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1149,21 +989,21 @@
       <c r="I7" s="2"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>82</v>
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1171,21 +1011,21 @@
       <c r="I8" s="2"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>96</v>
+    <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1193,21 +1033,21 @@
       <c r="I9" s="2"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>97</v>
+    <row r="10" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1215,21 +1055,21 @@
       <c r="I10" s="2"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>89</v>
+    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1237,21 +1077,21 @@
       <c r="I11" s="2"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>90</v>
+    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -1259,21 +1099,21 @@
       <c r="I12" s="2"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>85</v>
+      <c r="D13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1281,21 +1121,21 @@
       <c r="I13" s="2"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>86</v>
+    <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1303,7 +1143,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>1</v>
       </c>
@@ -1314,143 +1154,143 @@
         <v>9</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" ht="270" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>2</v>
       </c>
@@ -1458,1025 +1298,574 @@
         <v>8</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>106</v>
+        <v>79</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="8" t="s">
-        <v>40</v>
+      <c r="E29" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F30" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>100</v>
+      </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>34</v>
+        <v>8</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>40</v>
+        <v>26</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>40</v>
+        <v>27</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
     </row>
-    <row r="40" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
     </row>
-    <row r="42" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>136</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>33</v>
+        <v>115</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>34</v>
+        <v>116</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
     </row>
-    <row r="46" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
     </row>
-    <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-    </row>
-    <row r="48" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-    </row>
-    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-    </row>
-    <row r="59" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="E62" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>115</v>
-      </c>
-      <c r="B63" t="s">
-        <v>8</v>
-      </c>
-      <c r="C63" t="s">
-        <v>138</v>
-      </c>
-      <c r="D63" t="s">
-        <v>138</v>
-      </c>
-      <c r="E63" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>115</v>
-      </c>
-      <c r="B64" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" t="s">
-        <v>143</v>
-      </c>
-      <c r="D64" t="s">
-        <v>143</v>
-      </c>
-      <c r="E64" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>115</v>
-      </c>
-      <c r="B65" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" t="s">
-        <v>144</v>
-      </c>
-      <c r="D65" t="s">
-        <v>144</v>
-      </c>
-      <c r="E65" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>115</v>
-      </c>
-      <c r="B66" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66" t="s">
-        <v>145</v>
-      </c>
-      <c r="D66" t="s">
-        <v>145</v>
-      </c>
-      <c r="E66" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>115</v>
-      </c>
-      <c r="B67" t="s">
-        <v>116</v>
-      </c>
-      <c r="C67" t="s">
-        <v>119</v>
-      </c>
-      <c r="D67" t="s">
-        <v>119</v>
-      </c>
-      <c r="E67" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>115</v>
-      </c>
-      <c r="B68" t="s">
-        <v>117</v>
-      </c>
-      <c r="C68" t="s">
-        <v>121</v>
-      </c>
-      <c r="D68" t="s">
-        <v>121</v>
-      </c>
-      <c r="E68" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>115</v>
-      </c>
-      <c r="B69" t="s">
-        <v>140</v>
-      </c>
-      <c r="C69" t="s">
-        <v>139</v>
-      </c>
-      <c r="D69" t="s">
-        <v>139</v>
-      </c>
-      <c r="E69" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>115</v>
-      </c>
-      <c r="B70" t="s">
-        <v>141</v>
-      </c>
-      <c r="C70" t="s">
-        <v>142</v>
-      </c>
-      <c r="D70" t="s">
-        <v>142</v>
-      </c>
-      <c r="E70" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>115</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>115</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ipa_2/myUtils/instructions.xlsx
+++ b/ipa_2/myUtils/instructions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A0FCD4-9CDF-4C92-A9CD-A16225C7CC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4AC900-3F34-45C7-AD03-E3225AF3C90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="302" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="302" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -434,9 +434,6 @@
     <t>בחרת</t>
   </si>
   <si>
-    <t>בפרופיל זה</t>
-  </si>
-  <si>
     <t>shootThisProfile</t>
   </si>
   <si>
@@ -446,12 +443,6 @@
     <t>ignoreThisProfile</t>
   </si>
   <si>
-    <t>לפרופיל זה</t>
-  </si>
-  <si>
-    <t>מפרופיל זה</t>
-  </si>
-  <si>
     <t>setAName</t>
   </si>
   <si>
@@ -462,6 +453,15 @@
   </si>
   <si>
     <t>סט העדפת צורות</t>
+  </si>
+  <si>
+    <t>בפרופיל</t>
+  </si>
+  <si>
+    <t>לפרופיל</t>
+  </si>
+  <si>
+    <t>מפרופיל</t>
   </si>
 </sst>
 </file>
@@ -821,20 +821,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" customWidth="1"/>
-    <col min="3" max="3" width="51.33203125" customWidth="1"/>
-    <col min="4" max="4" width="48.44140625" customWidth="1"/>
-    <col min="5" max="5" width="49.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="51.28515625" customWidth="1"/>
+    <col min="4" max="4" width="48.42578125" customWidth="1"/>
+    <col min="5" max="5" width="49.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -858,21 +858,21 @@
       <c r="I1" s="2"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>49</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -880,21 +880,21 @@
       <c r="I2" s="2"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>49</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -902,7 +902,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>49</v>
       </c>
@@ -924,7 +924,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>49</v>
       </c>
@@ -946,7 +946,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>49</v>
       </c>
@@ -967,7 +967,7 @@
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>49</v>
       </c>
@@ -989,7 +989,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>49</v>
       </c>
@@ -1011,7 +1011,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>49</v>
       </c>
@@ -1033,7 +1033,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>49</v>
       </c>
@@ -1055,7 +1055,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>49</v>
       </c>
@@ -1077,7 +1077,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>49</v>
       </c>
@@ -1099,7 +1099,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>49</v>
       </c>
@@ -1121,7 +1121,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>49</v>
       </c>
@@ -1143,7 +1143,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>1</v>
       </c>
@@ -1164,7 +1164,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>1</v>
       </c>
@@ -1185,7 +1185,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>1</v>
       </c>
@@ -1206,7 +1206,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>1</v>
       </c>
@@ -1227,7 +1227,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>1</v>
       </c>
@@ -1248,7 +1248,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>1</v>
       </c>
@@ -1269,7 +1269,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>1</v>
       </c>
@@ -1290,7 +1290,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="270" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>2</v>
       </c>
@@ -1313,7 +1313,7 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>3</v>
       </c>
@@ -1334,7 +1334,7 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>3</v>
       </c>
@@ -1355,7 +1355,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>3</v>
       </c>
@@ -1376,7 +1376,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>3</v>
       </c>
@@ -1397,7 +1397,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>10</v>
       </c>
@@ -1418,7 +1418,7 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>10</v>
       </c>
@@ -1439,7 +1439,7 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>10</v>
       </c>
@@ -1460,7 +1460,7 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>4</v>
       </c>
@@ -1480,7 +1480,7 @@
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>4</v>
       </c>
@@ -1501,7 +1501,7 @@
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>5</v>
       </c>
@@ -1522,7 +1522,7 @@
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -1543,7 +1543,7 @@
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>5</v>
       </c>
@@ -1564,7 +1564,7 @@
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>5</v>
       </c>
@@ -1585,7 +1585,7 @@
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>5</v>
       </c>
@@ -1606,7 +1606,7 @@
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>5</v>
       </c>
@@ -1627,7 +1627,7 @@
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>5</v>
       </c>
@@ -1648,7 +1648,7 @@
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>5</v>
       </c>
@@ -1669,7 +1669,7 @@
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>5</v>
       </c>
@@ -1690,7 +1690,7 @@
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>5</v>
       </c>
@@ -1711,7 +1711,7 @@
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>5</v>
       </c>
@@ -1732,7 +1732,7 @@
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>5</v>
       </c>
@@ -1753,70 +1753,70 @@
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>30</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>30</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>30</v>
       </c>

--- a/ipa_2/myUtils/instructions.xlsx
+++ b/ipa_2/myUtils/instructions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4AC900-3F34-45C7-AD03-E3225AF3C90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC63BEF5-6A32-464B-BB8B-8D448E719438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="302" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="302" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="131">
   <si>
     <t>phase</t>
   </si>
@@ -462,6 +462,27 @@
   </si>
   <si>
     <t>מפרופיל</t>
+  </si>
+  <si>
+    <t>על מנת לקבל את ההחלטה תוכל לצפות במידע לגבי אותם אנשים, אך תצטרך לבחור איזה סוג של מידע אתה רואה. כפי שדירגת את עצמך על שני סוגים שונים של מאפיינם, כך גם עשו אנשים אחרים. סוג אחד מורכב מתכונות ומאפיינים אנושיים, והסוג השני מורכב מהעדפה של צורות וסימנים.</t>
+  </si>
+  <si>
+    <t>shooting_game_figure.JPG</t>
+  </si>
+  <si>
+    <t>helping_game_figure.JPG</t>
+  </si>
+  <si>
+    <t>במסגרת המטלה הבאה תצטרך לקבל החלטות שונות בסיטואציות שונות. באחת הסיטואציות תעמוד מול שני אנשים שונים ותצטרך לבחור במי מהם אתה יורה - יורה על מנת להרוג. אתה יכול לירות רק באחד מהם ומהשני תצטרך להתעלם.  אותם שני אנשים נמצאים בסיטואציה דומה לשלך וגם כל אחד מהם צריך לבחור האם לירות בך  ולהתעלם מהאדם השני, או לירות באדם השני ולהתעלם ממך. כל אחד מהמשתתפים, כולל אותך, לא יראה את ההחלטה של הצד השני עד סוף הניסוי. לפי שילוב ההחלטות ייקבע כמה נקודות כל אחד מהצדדים מרוויח או מפסיד. ראה טבלה.</t>
+  </si>
+  <si>
+    <t>בסיטואציה אחרת, תצטרך לבחור למי אתה מגיש עזרה וממי אתה מתעלם, גם כאן תוכל להגיש עזרה רק לאדם אחד. כמו כן, אותם שני אנשים נמצאים בסיטואציה דומה לשלך וגם כל אחד מהם צריך לבחור האם לעזור לך ולהתעלם מהאדם השני, או לעזור לאדם השני ולהתעלם ממך.כל אחד מהמשתתפים, כולל אותך, לא יראה את ההחלטה של הצד השני עד סוף הניסוי. לפי שילוב ההחלטות ייקבע כמה נקודות כל אחד מהצדדים מרוויח או מפסיד. ראה טבלה.</t>
+  </si>
+  <si>
+    <t>sets_choice.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">על מנת לקבל את ההחלטה תוכל לצפות במידע לגבי אותם אנשים, אך תצטרך לבחור איזה סוג של מידע אתה רואה. כפי שדירגת את עצמך על שני סוגים שונים של מאפיינם, כך גם עשו אנשים אחרים. סוג אחד מורכב מתכונות ומאפיינים אנושיים, והסוג השני מורכב מהעדפה של צורות וסימנים. לפני הבחירה תוכל לדעת מהי סוג הסיטואציה - לדוגמה, תדע שמדובר בסיטואציה של יריות, אתה צריך לבחור במי אתה יורה, אך לפני שתוכל לראות את המידע על שני המשתתפים האחרים, תצטרך לבחור את סוג המידע. במקרים אחרים, תדע שאתה עומד בפני סיטואציה של מתן עזרה, גם אז תצטרף לבחור את סוג המידע. </t>
   </si>
 </sst>
 </file>
@@ -819,22 +840,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="C33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" customWidth="1"/>
-    <col min="3" max="3" width="51.28515625" customWidth="1"/>
-    <col min="4" max="4" width="48.42578125" customWidth="1"/>
-    <col min="5" max="5" width="49.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.5546875" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" customWidth="1"/>
+    <col min="3" max="3" width="51.33203125" customWidth="1"/>
+    <col min="4" max="4" width="48.44140625" customWidth="1"/>
+    <col min="5" max="5" width="49.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -858,7 +879,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>49</v>
       </c>
@@ -880,7 +901,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>49</v>
       </c>
@@ -902,7 +923,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>49</v>
       </c>
@@ -924,7 +945,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>49</v>
       </c>
@@ -946,7 +967,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>49</v>
       </c>
@@ -967,7 +988,7 @@
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>49</v>
       </c>
@@ -989,7 +1010,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>49</v>
       </c>
@@ -1011,7 +1032,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>49</v>
       </c>
@@ -1033,7 +1054,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>49</v>
       </c>
@@ -1055,7 +1076,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>49</v>
       </c>
@@ -1077,7 +1098,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>49</v>
       </c>
@@ -1099,7 +1120,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>49</v>
       </c>
@@ -1121,7 +1142,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>49</v>
       </c>
@@ -1143,7 +1164,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>1</v>
       </c>
@@ -1164,7 +1185,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>1</v>
       </c>
@@ -1185,7 +1206,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>1</v>
       </c>
@@ -1206,7 +1227,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>1</v>
       </c>
@@ -1227,7 +1248,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>1</v>
       </c>
@@ -1248,7 +1269,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>1</v>
       </c>
@@ -1269,7 +1290,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>1</v>
       </c>
@@ -1290,7 +1311,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" ht="270" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>2</v>
       </c>
@@ -1313,7 +1334,7 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>3</v>
       </c>
@@ -1334,7 +1355,7 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>3</v>
       </c>
@@ -1355,7 +1376,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>3</v>
       </c>
@@ -1376,7 +1397,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>3</v>
       </c>
@@ -1397,7 +1418,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>10</v>
       </c>
@@ -1418,7 +1439,7 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>10</v>
       </c>
@@ -1439,7 +1460,7 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>10</v>
       </c>
@@ -1460,7 +1481,7 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>4</v>
       </c>
@@ -1468,19 +1489,22 @@
         <v>8</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>100</v>
+        <v>127</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>4</v>
       </c>
@@ -1488,382 +1512,448 @@
         <v>8</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="F31" s="4"/>
+        <v>128</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F32" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>129</v>
+      </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F33" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>100</v>
+      </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>81</v>
+        <v>26</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>95</v>
+        <v>27</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B50" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C50" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D50" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E50" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B51" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C51" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D51" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E51" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
+    <row r="52" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B52" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C52" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D52" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E49" s="10" t="s">
+      <c r="E52" s="10" t="s">
         <v>57</v>
       </c>
     </row>

--- a/ipa_2/myUtils/instructions.xlsx
+++ b/ipa_2/myUtils/instructions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC63BEF5-6A32-464B-BB8B-8D448E719438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECA0B47-B84D-4C5D-8BDD-B8795D6A445A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="302" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-1740" windowWidth="23256" windowHeight="12456" tabRatio="302" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="146">
   <si>
     <t>phase</t>
   </si>
@@ -74,6 +74,21 @@
     <t>Pre Identification Task</t>
   </si>
   <si>
+    <t>Get Min Max Similarity</t>
+  </si>
+  <si>
+    <t>MaxName</t>
+  </si>
+  <si>
+    <t>MinName</t>
+  </si>
+  <si>
+    <t>MaxValue</t>
+  </si>
+  <si>
+    <t>MinValue</t>
+  </si>
+  <si>
     <t>text_he_male</t>
   </si>
   <si>
@@ -141,10 +156,34 @@
     <t>דמיון גבוה ביותר</t>
   </si>
   <si>
+    <t>askMax</t>
+  </si>
+  <si>
+    <t>askMin</t>
+  </si>
+  <si>
+    <t>reportMaxSimilarity</t>
+  </si>
+  <si>
+    <t>reportMinSimilarity</t>
+  </si>
+  <si>
     <t>End Screen</t>
   </si>
   <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>Pre Get Max Profile</t>
+  </si>
+  <si>
+    <t>Pre Get Min Profile</t>
+  </si>
+  <si>
     <t>onError</t>
+  </si>
+  <si>
+    <t>Pre Get Ideal Profile</t>
   </si>
   <si>
     <t>A</t>
@@ -185,6 +224,14 @@
     <t>טופס הסכמה</t>
   </si>
   <si>
+    <t>וכעת תתבקש לענות על אותן השאלות פעם נוספת, והפעם עבור {}, האדם שציינת &lt;strong&gt;כהכי פחות דומה לך&lt;/strong&gt;. כמובן, שאינך יכול לדעת את התשובות במדויק, לכן נסה לחשוב מה תהיה השתובה של {}, לדעתך.
+&lt;br&gt;יש ללחוץ על הסמן על מנת לבחור את המיקום על הסקאלה. לאחר בחירת מיקום הסמן, לחץ על הכפתור אשר יופיע בתחתית המסך.</t>
+  </si>
+  <si>
+    <t>וכעת תתבקשי לענות על אותן השאלות פעם נוספת, והפעם עבור {}, האדם שציינת &lt;strong&gt;כהכי פחות דומה לך&lt;/strong&gt;. כמובן, שאינך יכולה לדעת את התשובות במדויק, לכן נסי לחשוב מה תהיה השתובה של {}, לדעתך.
+&lt;br&gt;יש ללחוץ על הסמן על מנת לבחור את המיקום על הסקאלה. לאחר בחירת מיקום הסמן, לחצי על הכפתור אשר יופיע בתחתית המסך.</t>
+  </si>
+  <si>
     <t>beforeNewProfile</t>
   </si>
   <si>
@@ -207,6 +254,30 @@
   </si>
   <si>
     <t>nextButtonText</t>
+  </si>
+  <si>
+    <t>מבין כל האנשים שאתה יכול לחשוב עליהם, בחר את האדם, הדומה לך ביותר מבחינת כל התכונות והמאפיינים. 
+קח את הזמן וחשוב היטב, רק לאחר שאתה בטוח בבחירתך, רשום את ראשי התיבות של שמו.ה</t>
+  </si>
+  <si>
+    <t>כעת, מבין כל האנשים שאתה יכול לחשוב עליהם, בחר את האדם הכי פחות דומה לך מבחינת כל התכונות והמאפיינים. 
+קח את הזמן וחשוב היטב, רק לאחר שאתה בטוח בבחירתך, רשום כאן את ראשי התיבות של שמו.ה</t>
+  </si>
+  <si>
+    <t>כעת, מבין כל האנשים שאתה יכול לחשוב עליהם, בחר את האדם הכי פחות דומה לך מבחינת כל התכונות והמאפיינים. 
+קח את הזמן וחשוב היטב, רק לאחר שאתה בטוח בבחירתך, רשום כאן את ראשי התיבות של שמו או של שמה</t>
+  </si>
+  <si>
+    <t>כעת, מבין כל האנשים שאת יכול לחשוב עליהם, בחרי את האדם הכי פחות דומה לך מבחינת כל התכונות והמאפיינים. 
+קחי את הזמן וחשבי היטב, רק לאחר שאת בטוחה בבחירתך, רשמי כאן את ראשי התיבות של שמו או של שמה</t>
+  </si>
+  <si>
+    <t>מבין כל האנשים שאת יכול לחשוב עליהם, בחרי את האדם, הדומה לך ביותר מבחינת כל התכונות והמאפיינים. 
+קחי את הזמן וחשבי היטב, רק לאחר שאת בטוחה בבחירתך, רשמי כאן את ראשי התיבות של שמו או של שמה</t>
+  </si>
+  <si>
+    <t>מבין כל האנשים שאתה יכול לחשוב עליהם, בחר את האדם, הדומה לך ביותר מבחינת כל התכונות והמאפיינים. 
+קח את הזמן וחשוב היטב, רק לאחר שאתה בטוח בבחירתך, רשום את ראשי התיבות של שמו או של שמה</t>
   </si>
   <si>
     <t>endTitle</t>
@@ -284,6 +355,26 @@
   </si>
   <si>
     <t>המשך לפרופיל הבא</t>
+  </si>
+  <si>
+    <t xml:space="preserve">חשוֹב על {}, האדם שציינת כדומה לך ביותר. חשוב עד כמה אתה מרגיש שאתה ו-{} דומים.
+אנא דרג את מידת הדמיון בינך לבין {}. השתמש בכפתורים "+" או "-" על מנת להגדיל או להקטין את מידת החפיפה בין העיגולים.
+ככל שמידת החפיפה גדולה יותר, כך מידת הדמיון בינכם גדולה יותר. השתמש בשני הכפתורים עד שתגיע לחפיפה המדויקת ביותר לדעתך. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">חִשבי על {}, האדם שציינת כדומה לך ביותר. חשבי עד כמה את מרגישה שאת ו-{} דומים.
+אנא דרגי את מידת הדמיון בינך לבין {}. השתמשי בכפתורים "+" או "-" על מנת להגדיל או להקטין את מידת החפיפה בין העיגולים.  
+ככל שמידת החפיפה גדולה יותר, כך מידת הדמיון בינכם גדולה יותר. השתמשי בשני הכפתורים עד שתגיעי לחפיפה המדויקת ביותר לדעתך. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">חִשבי על {}, האדם שציינת כהכי פחות דומה לך. חשבי עד כמה את מרגישה שאת ו-{} דומים.
+אנא דרגי את מידת הדמיון בינך לבין {}. השתמשי בכפתורים "+" או "-" על מנת להגדיל או להקטין את מידת החפיפה בין העיגולים.  
+ככל שמידת החפיפה גדולה יותר, כך מידת הדמיון בינכם גדולה יותר. השתמשי בשני הכפתורים עד שתגיעי לחפיפה המדויקת ביותר לדעתך. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">חשוֹב על {}, האדם שציינת כהכי פחות דומה לך. חשוב עד כמה אתה מרגיש שאתה ו-{} דומים.
+אנא דרג את מידת הדמיון בינך לבין {}. השתמש בכפתורים "+" או "-" על מנת להגדיל או להקטין את מידת החפיפה בין העיגולים.
+ככל שמידת החפיפה גדולה יותר, כך מידת הדמיון בינכם גדולה יותר. השתמש בשני הכפתורים עד שתגיע לחפיפה המדויקת ביותר לדעתך. </t>
   </si>
   <si>
     <t>הדירוגים שסיפקת יוצרים פרופיל אישי שלך וכך גם דירוגיהם של המשתתפים הנוספים בניסוי.
@@ -302,10 +393,28 @@
 &lt;br&gt; שים לב, ייתכן גם ואף אחד מהפרופילים לא יהיה הפרופיל שלך, במקרה כזה לחץ על הכפתור האמצעי שבו יהיה רשום "אף אחד מהנ''ל". הקפד לבחון את כלל המאפיינים של כל פרופיל לפני שתגיע להחלטה.</t>
   </si>
   <si>
+    <t>כעת תתבקש לענות על אותן השאלות, אלו שקודם ענית עבור עצמך, אך הפעם עבור {}, האדם שציינת &lt;strong&gt; כדומה לך ביותר&lt;/strong&gt;. כמובן, שאינך יכול לדעת את התשובות במדויק, לכן נסה לחשוב מה תהיה התשובה של {}, לדעתך.
+&lt;br&gt;יש ללחוץ על הסמן על מנת לבחור את המיקום על הסקאלה. לאחר בחירת מיקום הסמן, לחץ על הכפתור אשר יופיע בתחתית המסך.</t>
+  </si>
+  <si>
+    <t>כעת תתבקשי לענות על אותן השאלות, אלו שקודם ענית עבור עצמך, אך הפעם עבור {}, האדם שציינת &lt;strong&gt; כדומה לך ביותר&lt;/strong&gt;. כמובן, שאינך יכולה לדעת את התשובות במדויק, לכן נסי לחשוב מה תהיה התשובה של {}, לדעתך. 
+&lt;br&gt;יש ללחוץ על הסמן על מנת לבחור את המיקום על הסקאלה. לאחר בחירת מיקום הסמן, לחצי על הכפתור אשר יופיע בתחתית המסך.</t>
+  </si>
+  <si>
     <t>מיוד יוצג פרופיל של משתתף חדש. התבונן היטב בהעדפות והמאפיינים השונים ונסה להכיר את אותו אדם.</t>
   </si>
   <si>
     <t>מיוד יוצג פרופיל של משתתף חדש. התבונני היטב בהעדפות והמאפיינים השונים ונסי להכיר את אותו אדם.</t>
+  </si>
+  <si>
+    <t>בחלק זה של הניסוי זה תתבקש לדרג את המאפיינים שלך, אלא שהפעם תתבקש לדרג את המאפיינים, לא כפי שאתה כעת, אלא כפי שהיית רוצה להיות באופן אידאלי.&lt;br&gt;
+התשובה לשאלות תעשה על ידי הזזה של סמן הנמצא בין שני קצוות, כך שהמקום אותו תבחר יתאר את המקום אליו אתה שואף וכיצד היית רוצה להיות במצב אידאלי.&lt;br&gt;
+יש ללחוץ על הסמן על מנת לבחור את המיקום על הסקאלה. לאחר בחירת מיקום הסמן, לחץ על הכפתור אשר יופיע בתחתית המסך.</t>
+  </si>
+  <si>
+    <t>בחלק זה של הניסוי זה תתבקשי לדרג את המאפיינים שלך, אלא שהפעם תתבקשי לדרג את המאפיינים, לא כפי שאת כעת, אלא כפי שהיית רוצה להיות באופן אידאלי.&lt;br&gt;
+התשובה לשאלות תעשה על ידי הזזה של סמן הנמצא בין שני קצוות, כך שהמקום אותו תבחרי יתאר את המקום אליו את שואפת וכיצד היית רוצה להיות במצב אידאלי.&lt;br&gt;
+יש ללחוץ על הסמן על מנת לבחור את המיקום על הסקאלה. לאחר בחירת מיקום הסמן, לחצי על הכפתור אשר יופיע בתחתית המסך.</t>
   </si>
   <si>
     <t>בחלק זה של הניסוי זה תתבקשי לענות על מספר שאלות.
@@ -326,6 +435,27 @@
   </si>
   <si>
     <t>לאחר ששני הפרופילים יוצגו בפניך ולאחר השהייה קצרה, יופיעו הכפתורים בעזרתם תוכל לבחור מה הוא הפרופיל שלך, או לציין שאף אחד מהפרופילים אינו שלך. קח את כל הזמן הדרוש לך לביצוע המטלה.</t>
+  </si>
+  <si>
+    <t>Matrix tutorial</t>
+  </si>
+  <si>
+    <t>You</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>במידה ואת תבחרי - {} - והאדם השני יבחר - {}, כמה את תקבלי?</t>
+  </si>
+  <si>
+    <t>במידה ואתה תבחר - {} - והאדם השני יבחר - {}, כמה אתה תקבל?</t>
+  </si>
+  <si>
+    <t>במידה ואת תבחרי - {} - והאדם השני יבחר - {}, כמה האדם השני יקבל?</t>
+  </si>
+  <si>
+    <t>במידה ואתה תבחר - {} - והאדם השני יבחר - {}, כמה האדם השני יקבל?</t>
   </si>
   <si>
     <t>ExplanationTexts</t>
@@ -398,91 +528,28 @@
 &lt;br&gt; ככל שתקבל תוצאה גבוהה יותר, הבונוס הכספי שלך יהיה גדול יותר!</t>
   </si>
   <si>
-    <t>gameCompetitive</t>
-  </si>
-  <si>
-    <t>gameCooperative</t>
-  </si>
-  <si>
-    <t>משחק היריות</t>
-  </si>
-  <si>
-    <t>משחק העזרה</t>
-  </si>
-  <si>
-    <t>helpAction</t>
-  </si>
-  <si>
-    <t>ignoreAction</t>
-  </si>
-  <si>
-    <t>shootAction</t>
-  </si>
-  <si>
-    <t>לירות</t>
-  </si>
-  <si>
-    <t>לעזור</t>
-  </si>
-  <si>
-    <t>להתעלם</t>
-  </si>
-  <si>
-    <t>youChose</t>
-  </si>
-  <si>
-    <t>בחרת</t>
-  </si>
-  <si>
-    <t>shootThisProfile</t>
-  </si>
-  <si>
-    <t>helpThisProfile</t>
-  </si>
-  <si>
-    <t>ignoreThisProfile</t>
-  </si>
-  <si>
-    <t>setAName</t>
-  </si>
-  <si>
-    <t>setBName</t>
-  </si>
-  <si>
-    <t>סט מאפיינם ותכונות</t>
-  </si>
-  <si>
-    <t>סט העדפת צורות</t>
-  </si>
-  <si>
-    <t>בפרופיל</t>
-  </si>
-  <si>
-    <t>לפרופיל</t>
-  </si>
-  <si>
-    <t>מפרופיל</t>
-  </si>
-  <si>
-    <t>על מנת לקבל את ההחלטה תוכל לצפות במידע לגבי אותם אנשים, אך תצטרך לבחור איזה סוג של מידע אתה רואה. כפי שדירגת את עצמך על שני סוגים שונים של מאפיינם, כך גם עשו אנשים אחרים. סוג אחד מורכב מתכונות ומאפיינים אנושיים, והסוג השני מורכב מהעדפה של צורות וסימנים.</t>
-  </si>
-  <si>
-    <t>shooting_game_figure.JPG</t>
-  </si>
-  <si>
-    <t>helping_game_figure.JPG</t>
-  </si>
-  <si>
-    <t>במסגרת המטלה הבאה תצטרך לקבל החלטות שונות בסיטואציות שונות. באחת הסיטואציות תעמוד מול שני אנשים שונים ותצטרך לבחור במי מהם אתה יורה - יורה על מנת להרוג. אתה יכול לירות רק באחד מהם ומהשני תצטרך להתעלם.  אותם שני אנשים נמצאים בסיטואציה דומה לשלך וגם כל אחד מהם צריך לבחור האם לירות בך  ולהתעלם מהאדם השני, או לירות באדם השני ולהתעלם ממך. כל אחד מהמשתתפים, כולל אותך, לא יראה את ההחלטה של הצד השני עד סוף הניסוי. לפי שילוב ההחלטות ייקבע כמה נקודות כל אחד מהצדדים מרוויח או מפסיד. ראה טבלה.</t>
-  </si>
-  <si>
-    <t>בסיטואציה אחרת, תצטרך לבחור למי אתה מגיש עזרה וממי אתה מתעלם, גם כאן תוכל להגיש עזרה רק לאדם אחד. כמו כן, אותם שני אנשים נמצאים בסיטואציה דומה לשלך וגם כל אחד מהם צריך לבחור האם לעזור לך ולהתעלם מהאדם השני, או לעזור לאדם השני ולהתעלם ממך.כל אחד מהמשתתפים, כולל אותך, לא יראה את ההחלטה של הצד השני עד סוף הניסוי. לפי שילוב ההחלטות ייקבע כמה נקודות כל אחד מהצדדים מרוויח או מפסיד. ראה טבלה.</t>
-  </si>
-  <si>
-    <t>sets_choice.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">על מנת לקבל את ההחלטה תוכל לצפות במידע לגבי אותם אנשים, אך תצטרך לבחור איזה סוג של מידע אתה רואה. כפי שדירגת את עצמך על שני סוגים שונים של מאפיינם, כך גם עשו אנשים אחרים. סוג אחד מורכב מתכונות ומאפיינים אנושיים, והסוג השני מורכב מהעדפה של צורות וסימנים. לפני הבחירה תוכל לדעת מהי סוג הסיטואציה - לדוגמה, תדע שמדובר בסיטואציה של יריות, אתה צריך לבחור במי אתה יורה, אך לפני שתוכל לראות את המידע על שני המשתתפים האחרים, תצטרך לבחור את סוג המידע. במקרים אחרים, תדע שאתה עומד בפני סיטואציה של מתן עזרה, גם אז תצטרף לבחור את סוג המידע. </t>
+    <t>כפי שאתה מילאת את התכונות והמאפיינים שלך כך גם עשו משתתפים אחרים ובמהלך הניסוי יוצגו לך הפרופילים שלהם. לאחר שתתבונן בפרופיל של כל אדם, תוצג בפניך סיטואציה אשר בה קיימות שתי אפשרויות לפעולה  עבורך ושתי אפשרויות לפעולה עבור האדם השני. עבור כל שילוב של שתי בחירות ישנה תוצאה אשר מיוצגת במספר, תוצאה עבורך ותוצאה עבור האחר. לחץ על הכפתור "הצג טבלה" על מנת להתבונן בטבלה.</t>
+  </si>
+  <si>
+    <t>הצג טבלה</t>
+  </si>
+  <si>
+    <t>presentTableButton</t>
+  </si>
+  <si>
+    <t>NextStep</t>
+  </si>
+  <si>
+    <t>השלב הבא</t>
+  </si>
+  <si>
+    <t>כעת, לצורך הדוגמה, אתה יכול לבחור בין {} , לבין {} וכך גם האדם השני. כל אחד מכם בוחר לפי ראות עיניו, ומתוך הניסיון להגיע לתוצאה הטובה ביותר עבורו. אתה יכול לבחור או בשורה הראשונה ({}) או בשורה השניה ({}). כך גם האדם השני יכול לבחור בין הטור הימני לשמאלי. בכל צירוף של שתי בחירות רשום כמה אתה תקבל וכמה האחר. התוצאה שלך רשומה תמיד מצד שמאל. לצורך בדיקת הבנה - בחר כעת את השורה התחונה - {}.</t>
+  </si>
+  <si>
+    <t>יפה מאוד! כאשר אתה לוחץ על אחת השורות, זה אומר שבחרת באפשרות הזו. כמה שתקבל תלוי במה יבחר האדם השני. בזמן שאתה מבצע את בחירתך אינך יכול לראות מה האדם השני בחר, אך גם כשאר השחקן השני בוחר, אתה לא יכול לראות את הבחירה שלו. התוצאות יקבעו רק לאחר מכן. בוא נמשיך בלמידה - לחץ עכשיו על האופציה העליונה.</t>
+  </si>
+  <si>
+    <t>מעולה! כעת, ענה על השאלות שמופיעות מטה. בכל שאלה תצטרך לומר כמה אתה או האדם האחר יקבלו עבור שילוב מסוים של שתי אפשרויות, הבחירה שלך והבחירה של האחר.</t>
   </si>
 </sst>
 </file>
@@ -526,7 +593,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -546,6 +613,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -840,22 +913,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" customWidth="1"/>
-    <col min="3" max="3" width="51.33203125" customWidth="1"/>
-    <col min="4" max="4" width="48.44140625" customWidth="1"/>
-    <col min="5" max="5" width="49.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="51.28515625" customWidth="1"/>
+    <col min="4" max="4" width="48.42578125" customWidth="1"/>
+    <col min="5" max="5" width="49.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -866,56 +939,55 @@
         <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>120</v>
+    <row r="2" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -923,21 +995,21 @@
       <c r="I3" s="2"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>104</v>
+    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -945,21 +1017,21 @@
       <c r="I4" s="2"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>105</v>
+    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -967,42 +1039,43 @@
       <c r="I5" s="2"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>50</v>
+    <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>89</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1010,21 +1083,21 @@
       <c r="I7" s="2"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>61</v>
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1032,21 +1105,21 @@
       <c r="I8" s="2"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>75</v>
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>85</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1054,21 +1127,21 @@
       <c r="I9" s="2"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>76</v>
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1076,116 +1149,112 @@
       <c r="I10" s="2"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>1</v>
       </c>
@@ -1193,768 +1262,936 @@
         <v>25</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="270" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="4"/>
+        <v>135</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>42</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>82</v>
+        <v>105</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>106</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>35</v>
+        <v>12</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>78</v>
+        <v>32</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>84</v>
+        <v>13</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>41</v>
+      <c r="E29" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>125</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>126</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>124</v>
+        <v>48</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>129</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>100</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>28</v>
+        <v>8</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F38" s="4"/>
+        <v>136</v>
+      </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
     </row>
-    <row r="40" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>87</v>
+        <v>31</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>93</v>
+        <v>32</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B43" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E43" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>109</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>115</v>
+        <v>8</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="B49" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>115</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" t="s">
+        <v>138</v>
+      </c>
+      <c r="D52" t="s">
+        <v>138</v>
+      </c>
+      <c r="E52" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>115</v>
+      </c>
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" t="s">
+        <v>143</v>
+      </c>
+      <c r="D53" t="s">
+        <v>143</v>
+      </c>
+      <c r="E53" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>115</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" t="s">
+        <v>144</v>
+      </c>
+      <c r="D54" t="s">
+        <v>144</v>
+      </c>
+      <c r="E54" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>115</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" t="s">
+        <v>145</v>
+      </c>
+      <c r="D55" t="s">
+        <v>145</v>
+      </c>
+      <c r="E55" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>115</v>
+      </c>
+      <c r="B56" t="s">
         <v>116</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C56" t="s">
+        <v>119</v>
+      </c>
+      <c r="D56" t="s">
+        <v>119</v>
+      </c>
+      <c r="E56" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>115</v>
+      </c>
+      <c r="B57" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" t="s">
+        <v>121</v>
+      </c>
+      <c r="D57" t="s">
+        <v>121</v>
+      </c>
+      <c r="E57" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" t="s">
+        <v>140</v>
+      </c>
+      <c r="C58" t="s">
+        <v>139</v>
+      </c>
+      <c r="D58" t="s">
+        <v>139</v>
+      </c>
+      <c r="E58" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" t="s">
+        <v>141</v>
+      </c>
+      <c r="C59" t="s">
+        <v>142</v>
+      </c>
+      <c r="D59" t="s">
+        <v>142</v>
+      </c>
+      <c r="E59" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>115</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>115</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+    </row>
+    <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>115</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E62" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/ipa_2/myUtils/instructions.xlsx
+++ b/ipa_2/myUtils/instructions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECA0B47-B84D-4C5D-8BDD-B8795D6A445A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3A60CA-E619-4622-B770-D46B123D3A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-1740" windowWidth="23256" windowHeight="12456" tabRatio="302" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="302" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="119">
   <si>
     <t>phase</t>
   </si>
@@ -63,54 +63,15 @@
     <t>irrelevant</t>
   </si>
   <si>
-    <t>השאלון שעליו את/ה עומד/ת לענות הוא חלק ממחקר פסיכולוגי שבוחן את הרגשות והחוויות בחיי היום יום.
-את/ה חופשי/ה לחלוטין להחליט האם את/ה מעוניין/ת להשתתף במחקר.
-במידה ותחליט/ילהשתתף, את/ה רשאי/ת להחליט להפסיק לגמרי את השתתפותך במחקר בכל שלב.
-נדגיש גם כי לא תתבקש/י למסור פרטים מזהים בשאלון זה, על כן תשובותיך ישמרו באופן אנונימי.
-ככל הידוע השתתפות במחקר אינה כרוכה בסיכונים כלשהם.
-אם ברצונך לשמור עותק מדף זה, ניתן להדפיס את העמוד כעת.</t>
-  </si>
-  <si>
     <t>Pre Identification Task</t>
   </si>
   <si>
-    <t>Get Min Max Similarity</t>
-  </si>
-  <si>
-    <t>MaxName</t>
-  </si>
-  <si>
-    <t>MinName</t>
-  </si>
-  <si>
-    <t>MaxValue</t>
-  </si>
-  <si>
-    <t>MinValue</t>
-  </si>
-  <si>
     <t>text_he_male</t>
   </si>
   <si>
     <t>text_he_female</t>
   </si>
   <si>
-    <t>השאלון שעליו אתה עומד לענות הוא חלק ממחקר פסיכולוגי שבוחן את הרגשות והחוויות בחיי היום יום.
-אתה חופשי לחלוטין להחליט האם אתה מעוניין להשתתף במחקר.
-במידה ותחליט  להשתתף, אתה רשאי להחליט להפסיק לגמרי את השתתפותך במחקר בכל שלב.
-נדגיש גם כי לא תתבקש למסור פרטים מזהים בשאלון זה, על כן תשובותיך ישמרו באופן אנונימי.
-ככל הידוע השתתפות במחקר אינה כרוכה בסיכונים כלשהם.
-אם ברצונך לשמור עותק מדף זה, ניתן להדפיס את העמוד כעת.</t>
-  </si>
-  <si>
-    <t>השאלון שעליו את עומדת לענות הוא חלק ממחקר פסיכולוגי שבוחן את הרגשות והחוויות בחיי היום יום.
-את חופשיה לחלוטין להחליט האם את מעוניית להשתתף במחקר.
-במידה ותחליטי להשתתף, את רשאית להחליט להפסיק לגמרי את השתתפותך במחקר בכל שלב.
-נדגיש גם כי לא תתבקשי למסור פרטים מזהים בשאלון זה, על כן תשובותיך ישמרו באופן אנונימי.
-ככל הידוע השתתפות במחקר אינה כרוכה בסיכונים כלשהם.
-אם ברצונך לשמור עותק מדף זה, ניתן להדפיס את העמוד כעת.</t>
-  </si>
-  <si>
     <t>checkboxTitle</t>
   </si>
   <si>
@@ -156,28 +117,7 @@
     <t>דמיון גבוה ביותר</t>
   </si>
   <si>
-    <t>askMax</t>
-  </si>
-  <si>
-    <t>askMin</t>
-  </si>
-  <si>
-    <t>reportMaxSimilarity</t>
-  </si>
-  <si>
-    <t>reportMinSimilarity</t>
-  </si>
-  <si>
     <t>End Screen</t>
-  </si>
-  <si>
-    <t>---</t>
-  </si>
-  <si>
-    <t>Pre Get Max Profile</t>
-  </si>
-  <si>
-    <t>Pre Get Min Profile</t>
   </si>
   <si>
     <t>onError</t>
@@ -224,14 +164,6 @@
     <t>טופס הסכמה</t>
   </si>
   <si>
-    <t>וכעת תתבקש לענות על אותן השאלות פעם נוספת, והפעם עבור {}, האדם שציינת &lt;strong&gt;כהכי פחות דומה לך&lt;/strong&gt;. כמובן, שאינך יכול לדעת את התשובות במדויק, לכן נסה לחשוב מה תהיה השתובה של {}, לדעתך.
-&lt;br&gt;יש ללחוץ על הסמן על מנת לבחור את המיקום על הסקאלה. לאחר בחירת מיקום הסמן, לחץ על הכפתור אשר יופיע בתחתית המסך.</t>
-  </si>
-  <si>
-    <t>וכעת תתבקשי לענות על אותן השאלות פעם נוספת, והפעם עבור {}, האדם שציינת &lt;strong&gt;כהכי פחות דומה לך&lt;/strong&gt;. כמובן, שאינך יכולה לדעת את התשובות במדויק, לכן נסי לחשוב מה תהיה השתובה של {}, לדעתך.
-&lt;br&gt;יש ללחוץ על הסמן על מנת לבחור את המיקום על הסקאלה. לאחר בחירת מיקום הסמן, לחצי על הכפתור אשר יופיע בתחתית המסך.</t>
-  </si>
-  <si>
     <t>beforeNewProfile</t>
   </si>
   <si>
@@ -254,30 +186,6 @@
   </si>
   <si>
     <t>nextButtonText</t>
-  </si>
-  <si>
-    <t>מבין כל האנשים שאתה יכול לחשוב עליהם, בחר את האדם, הדומה לך ביותר מבחינת כל התכונות והמאפיינים. 
-קח את הזמן וחשוב היטב, רק לאחר שאתה בטוח בבחירתך, רשום את ראשי התיבות של שמו.ה</t>
-  </si>
-  <si>
-    <t>כעת, מבין כל האנשים שאתה יכול לחשוב עליהם, בחר את האדם הכי פחות דומה לך מבחינת כל התכונות והמאפיינים. 
-קח את הזמן וחשוב היטב, רק לאחר שאתה בטוח בבחירתך, רשום כאן את ראשי התיבות של שמו.ה</t>
-  </si>
-  <si>
-    <t>כעת, מבין כל האנשים שאתה יכול לחשוב עליהם, בחר את האדם הכי פחות דומה לך מבחינת כל התכונות והמאפיינים. 
-קח את הזמן וחשוב היטב, רק לאחר שאתה בטוח בבחירתך, רשום כאן את ראשי התיבות של שמו או של שמה</t>
-  </si>
-  <si>
-    <t>כעת, מבין כל האנשים שאת יכול לחשוב עליהם, בחרי את האדם הכי פחות דומה לך מבחינת כל התכונות והמאפיינים. 
-קחי את הזמן וחשבי היטב, רק לאחר שאת בטוחה בבחירתך, רשמי כאן את ראשי התיבות של שמו או של שמה</t>
-  </si>
-  <si>
-    <t>מבין כל האנשים שאת יכול לחשוב עליהם, בחרי את האדם, הדומה לך ביותר מבחינת כל התכונות והמאפיינים. 
-קחי את הזמן וחשבי היטב, רק לאחר שאת בטוחה בבחירתך, רשמי כאן את ראשי התיבות של שמו או של שמה</t>
-  </si>
-  <si>
-    <t>מבין כל האנשים שאתה יכול לחשוב עליהם, בחר את האדם, הדומה לך ביותר מבחינת כל התכונות והמאפיינים. 
-קח את הזמן וחשוב היטב, רק לאחר שאתה בטוח בבחירתך, רשום את ראשי התיבות של שמו או של שמה</t>
   </si>
   <si>
     <t>endTitle</t>
@@ -355,50 +263,6 @@
   </si>
   <si>
     <t>המשך לפרופיל הבא</t>
-  </si>
-  <si>
-    <t xml:space="preserve">חשוֹב על {}, האדם שציינת כדומה לך ביותר. חשוב עד כמה אתה מרגיש שאתה ו-{} דומים.
-אנא דרג את מידת הדמיון בינך לבין {}. השתמש בכפתורים "+" או "-" על מנת להגדיל או להקטין את מידת החפיפה בין העיגולים.
-ככל שמידת החפיפה גדולה יותר, כך מידת הדמיון בינכם גדולה יותר. השתמש בשני הכפתורים עד שתגיע לחפיפה המדויקת ביותר לדעתך. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">חִשבי על {}, האדם שציינת כדומה לך ביותר. חשבי עד כמה את מרגישה שאת ו-{} דומים.
-אנא דרגי את מידת הדמיון בינך לבין {}. השתמשי בכפתורים "+" או "-" על מנת להגדיל או להקטין את מידת החפיפה בין העיגולים.  
-ככל שמידת החפיפה גדולה יותר, כך מידת הדמיון בינכם גדולה יותר. השתמשי בשני הכפתורים עד שתגיעי לחפיפה המדויקת ביותר לדעתך. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">חִשבי על {}, האדם שציינת כהכי פחות דומה לך. חשבי עד כמה את מרגישה שאת ו-{} דומים.
-אנא דרגי את מידת הדמיון בינך לבין {}. השתמשי בכפתורים "+" או "-" על מנת להגדיל או להקטין את מידת החפיפה בין העיגולים.  
-ככל שמידת החפיפה גדולה יותר, כך מידת הדמיון בינכם גדולה יותר. השתמשי בשני הכפתורים עד שתגיעי לחפיפה המדויקת ביותר לדעתך. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">חשוֹב על {}, האדם שציינת כהכי פחות דומה לך. חשוב עד כמה אתה מרגיש שאתה ו-{} דומים.
-אנא דרג את מידת הדמיון בינך לבין {}. השתמש בכפתורים "+" או "-" על מנת להגדיל או להקטין את מידת החפיפה בין העיגולים.
-ככל שמידת החפיפה גדולה יותר, כך מידת הדמיון בינכם גדולה יותר. השתמש בשני הכפתורים עד שתגיע לחפיפה המדויקת ביותר לדעתך. </t>
-  </si>
-  <si>
-    <t>הדירוגים שסיפקת יוצרים פרופיל אישי שלך וכך גם דירוגיהם של המשתתפים הנוספים בניסוי.
-בחלק הזה של הניסוי יוצגו בפניך שני פרופילים בו זמנית, אחד בצד ימין והשני בצד שמאל. אחד מהפרופילים האלו הוא שלך, כלומר מתאר את הדירוגים שלך כפי שדירגת כעת, והשני הוא של משתתף אחר. 
-התבונן היטב בשני הפרופילים וזהה מה הוא הפרופיל שלך.
-&lt;br&gt; שים לב, ייתכן גם ואף אחד מהפרופילים לא יהיה הפרופיל שלך, במקרה כזה לחץ על הכפתור האמצעי שבו יהיה רשום "אף אחד מהנ''ל". הקפד לבחון את כלל המאפיינים של כל פרופיל לפני שתגיע להחלטה.</t>
-  </si>
-  <si>
-    <t>הדירוגים שסיפקת יוצרים פרופיל אישי שלך וכך גם דירוגיהם של המשתתפים הנוספים בניסוי.
-בחלק הזה של הניסוי יוצגו בפניך שני פרופילים בו זמנית, אחד בצד ימין והשני בצד שמאל. אחד מהפרופילים האלו הוא שלך, כלומר מתאר את הדירוגים שלך כפי שדירגת כעת, והשני הוא של משתתף אחר. התבונני היטב בשני הפרופילים וזהי מה הוא הפרופיל שלך.
-&lt;br&gt; שימי לב, ייתכן גם ואף אחד מהפרופילים לא יהיה הפרופיל שלך, במקרה כזה ליחצי על הכפתור האמצעי שבו יהיה רשום - אף אחד מהנ"ל. הקפידי לבחון את כלל המאפיינים של כל פרופיל לפני שתגיעי להחלטה.</t>
-  </si>
-  <si>
-    <t>הדירוגים שסיפקת יוצרים פרופיל אישי שלך וכך גם דירוגיהם של המשתתפים הנוספים בניסוי.
-בחלק הזה של הניסוי יוצגו בפניך שני פרופילים בו זמנית, אחד בצד ימין והשני בצד שמאל. אחד מהפרופילים האלו הוא שלך, כלומר מתאר את הדירוגים שלך כפי שדירגת כעת, והשני הוא של משתתף אחר. התבונן היטב בשני הפרופילים וזהה מה הוא הפרופיל שלך.
-&lt;br&gt; שים לב, ייתכן גם ואף אחד מהפרופילים לא יהיה הפרופיל שלך, במקרה כזה לחץ על הכפתור האמצעי שבו יהיה רשום "אף אחד מהנ''ל". הקפד לבחון את כלל המאפיינים של כל פרופיל לפני שתגיע להחלטה.</t>
-  </si>
-  <si>
-    <t>כעת תתבקש לענות על אותן השאלות, אלו שקודם ענית עבור עצמך, אך הפעם עבור {}, האדם שציינת &lt;strong&gt; כדומה לך ביותר&lt;/strong&gt;. כמובן, שאינך יכול לדעת את התשובות במדויק, לכן נסה לחשוב מה תהיה התשובה של {}, לדעתך.
-&lt;br&gt;יש ללחוץ על הסמן על מנת לבחור את המיקום על הסקאלה. לאחר בחירת מיקום הסמן, לחץ על הכפתור אשר יופיע בתחתית המסך.</t>
-  </si>
-  <si>
-    <t>כעת תתבקשי לענות על אותן השאלות, אלו שקודם ענית עבור עצמך, אך הפעם עבור {}, האדם שציינת &lt;strong&gt; כדומה לך ביותר&lt;/strong&gt;. כמובן, שאינך יכולה לדעת את התשובות במדויק, לכן נסי לחשוב מה תהיה התשובה של {}, לדעתך. 
-&lt;br&gt;יש ללחוץ על הסמן על מנת לבחור את המיקום על הסקאלה. לאחר בחירת מיקום הסמן, לחצי על הכפתור אשר יופיע בתחתית המסך.</t>
   </si>
   <si>
     <t>מיוד יוצג פרופיל של משתתף חדש. התבונן היטב בהעדפות והמאפיינים השונים ונסה להכיר את אותו אדם.</t>
@@ -429,12 +293,6 @@
 &lt;br&gt;המענה לשאלות יתבצע על ידי הזזה של סמן הנמצא בין שני קצוות, כך שהמקום אותו תבחר יתאר אותך בצורה הטובה והמדויקת ביותר.
 &lt;br&gt;לאחר בחירת מיקום הסמן, לחץ על הכפתור אשר יופיע בתחתית המסך.
 &lt;br&gt; שים לב, רק לאחר לחיצה על הסמן ובחירת מיקומו תוכל להמשיך לשלב הבא.</t>
-  </si>
-  <si>
-    <t>לאחר ששני הפרופילים יוצגו בפניך ולאחר השהייה קצרה, יופיעו הכפתורים בעזרתם תוכלי לבחור מה הוא הפרופיל שלך, או לציין שאף אחד מהפרופילים אינו שלך. קחי את כל הזמן הדרוש לך לביצוע המטלה.</t>
-  </si>
-  <si>
-    <t>לאחר ששני הפרופילים יוצגו בפניך ולאחר השהייה קצרה, יופיעו הכפתורים בעזרתם תוכל לבחור מה הוא הפרופיל שלך, או לציין שאף אחד מהפרופילים אינו שלך. קח את כל הזמן הדרוש לך לביצוע המטלה.</t>
   </si>
   <si>
     <t>Matrix tutorial</t>
@@ -519,18 +377,6 @@
 במידת הצורך פני לנסיינ.ית לעזרה.</t>
   </si>
   <si>
-    <t>כעת תצפה במספר פרופילים של אנשים. כל פרופיל יורכב מדירוג מאפיינים המתארים אדם אחר. התבונן היטב בכל בפרופיל, ולאחר מכן תוצג בפניך טבלה המתארת סיטואציה בה לך ולאדם השני שתי פעולות בהן תוכל לנקוט זה מול זה. התוצאה תקבע לפי שילוב הבחירות שלכם. כל אחד מכם יצטרך להחליט כיצד לפעול לפני שיוכל לדעת מה בחר האדם השני. 
-&lt;br&gt;אנא השתמש במידע שיוצג לך על מנת לנסות להכיר את אותו אדם ולהחליט כיצד לפעול. אם תרצה להתרשם פעם נוספת מהפרופיל, תוכל ללחוץ על הכפתור "הצג שוב".</t>
-  </si>
-  <si>
-    <t>במהלך הניסוי תצפה במספר פרופילים כאלו, ואל מול כל אחד מהם תצטרך להחליט באיזו פעולה לנקוט. כלומר מדובר כל פעם בסיטואציה חדשה ובבחירה שתצטרך לעשות אל מול אותו אדם שבפרופיל שלו צפית.
-&lt;br&gt; בסוף הניסוי צוות המחקר ידגום באופן אקראי את אחת מהחלטותיך אל מול אדם מסוים, ויחושבו התוצאות בהתאם לפעולות אשר אתה והאדם השני בחרתם בהן. התוצאה הזו תקבע את גובה הבונוס הכספי שתוכל לקבל! 
-&lt;br&gt; ככל שתקבל תוצאה גבוהה יותר, הבונוס הכספי שלך יהיה גדול יותר!</t>
-  </si>
-  <si>
-    <t>כפי שאתה מילאת את התכונות והמאפיינים שלך כך גם עשו משתתפים אחרים ובמהלך הניסוי יוצגו לך הפרופילים שלהם. לאחר שתתבונן בפרופיל של כל אדם, תוצג בפניך סיטואציה אשר בה קיימות שתי אפשרויות לפעולה  עבורך ושתי אפשרויות לפעולה עבור האדם השני. עבור כל שילוב של שתי בחירות ישנה תוצאה אשר מיוצגת במספר, תוצאה עבורך ותוצאה עבור האחר. לחץ על הכפתור "הצג טבלה" על מנת להתבונן בטבלה.</t>
-  </si>
-  <si>
     <t>הצג טבלה</t>
   </si>
   <si>
@@ -550,13 +396,66 @@
   </si>
   <si>
     <t>מעולה! כעת, ענה על השאלות שמופיעות מטה. בכל שאלה תצטרך לומר כמה אתה או האדם האחר יקבלו עבור שילוב מסוים של שתי אפשרויות, הבחירה שלך והבחירה של האחר.</t>
+  </si>
+  <si>
+    <t>הדירוגים שסיפקת יוצרים פרופיל אישי שלך וכך גם דירוגיהם של המשתתפים הנוספים בניסוי.
+בחלק הזה של הניסוי יוצגו בפניך שני פרופילים בו זמנית, אחד בצד ימין והשני בצד שמאל. אחד מהפרופילים האלו הוא שלך, כלומר מתאר את הדירוגים שלך כפי שדירגת כעת, והשני הוא של משתתף אחר. התבונן היטב בשני הפרופילים וזהה את הפרופיל שלך.
+&lt;br&gt; שים לב, ייתכן גם ואף אחד מהפרופילים לא יהיה הפרופיל שלך, במקרה כזה לחץ על הכפתור האמצעי שבו יהיה רשום "אף אחד מהנ''ל". הקפד לבחון את כלל המאפיינים של כל פרופיל לפני שתגיע להחלטה.</t>
+  </si>
+  <si>
+    <t>הדירוגים שסיפקת יוצרים פרופיל אישי שלך וכך גם דירוגיהם של המשתתפים הנוספים בניסוי.
+בחלק הזה של הניסוי יוצגו בפניך שני פרופילים בו זמנית, אחד בצד ימין והשני בצד שמאל. אחד מהפרופילים האלו הוא שלך, כלומר מתאר את הדירוגים שלך כפי שדירגת כעת, והשני הוא של משתתף אחר. התבונני היטב בשני הפרופילים וזהי את הפרופיל שלך.
+&lt;br&gt; שימי לב, ייתכן גם ואף אחד מהפרופילים לא יהיה הפרופיל שלך, במקרה כזה ליחצי על הכפתור האמצעי שבו יהיה רשום - אף אחד מהנ"ל. הקפידי לבחון את כלל המאפיינים של כל פרופיל לפני שתגיעי להחלטה.</t>
+  </si>
+  <si>
+    <t>לאחר ששני הפרופילים יוצגו בפניך ולאחר השהייה קצרה, יופיעו הכפתורים בעזרתם תוכל לבחור את הפרופיל שלך, או לציין שאף אחד מהפרופילים אינו שלך. קח את כל הזמן הדרוש לך לביצוע המטלה.</t>
+  </si>
+  <si>
+    <t>לאחר ששני הפרופילים יוצגו בפניך ולאחר השהייה קצרה, יופיעו הכפתורים בעזרתם תוכלי לבחור את הפרופיל שלך, או לציין שאף אחד מהפרופילים אינו שלך. קחי את כל הזמן הדרוש לך לביצוע המטלה.</t>
+  </si>
+  <si>
+    <t>במהלך הניסוי תוצגנה מספר סיטואציות המערבות שני אנשים שבהן כל אחד יכול להרוויח סכום כספי. לכל סיטואציה קיימות שתי אפשרויות בחירה שלך ושתי אפשרויות בחירה של האחר או האחרת. לכל שילוב של בחירות ישנה תוצאה מספרית המיועדת עבורך ותוצאה מספרית המיועדת עבור האחר או האחרת. אפשרויות הבחירה והתוצאות השונות מיוצגות בטבלה. לחץ על הכפתור "הצג טבלה" על מנת להתבונן בסיטואציה לדוגמה.</t>
+  </si>
+  <si>
+    <t>במהלך הניסוי תוצגנה מספר סיטואציות המערבות שני אנשים שבהן כל אחד יכול להרוויח סכום כספי. לכל סיטואציה קיימות שתי אפשרויות בחירה שלך ושתי אפשרויות בחירה של האחר או האחרת. לכל שילוב של בחירות ישנה תוצאה מספרית המיועדת עבורך ותוצאה מספרית המיועדת עבור האחר או האחרת. אפשרויות הבחירה והתוצאות השונות מיוצגות בטבלה. ליחצי על הכפתור "הצג טבלה" על מנת להתבונן בסיטואציה לדוגמה.</t>
+  </si>
+  <si>
+    <t>שלום רב,
+אנו מבקשים ממך להשתתף במחקר בשם: "אינטראקציות ופרופילים" אשר מטרתו היא ללמוד על אופן קבלת ההחלטות של אנשים במצבים בין אישיים.  השתתפותך במחקר עשויה לתרום בצורה משמעותית להבנת הנושא. המחקר נערך על ידי המעבדה לחקר דילמות חברתיות בביה"ס למדעי הפסיכולוגיה באוניברסיטת חיפה בראשותו של פרופ' אילן פישר. &lt;br&gt;
+2.	מטרת המחקר: &lt;br&gt;
+מטרת המחקר הינה ללמוד את האופן שבו מתקבלות ההחלטות במצבים בין אישיים שונים אשר מוגדרים ע''י אפשרויות פעולה שונות ותוצאותיהן. &lt;br&gt;
+3.	מה כולל המחקר? &lt;br&gt;
+במסגרת המחקר תתבקש/י להשתתף בניסוי. משך הניסוי יהיה כ-45 דקות. &lt;br&gt;
+4.	האם ישנם סיכונים/חוסר נוחות שעשויים להתלוות להשתתפות במחקר? &lt;br&gt;
+אין. &lt;br&gt;
+5.	האם אני חייב/ת להשתתף? &lt;br&gt;
+חשוב לנו להבהיר כי ההשתתפות במחקר הנה מרצון ואינך חייב/ת להשתתף במחקר. לאי הסכמה שלך להשתתף או להפסקת השתתפותך במהלך הניסוי לא תהיה כל השלכה עליך ולא תפגע בך בכל דרך שהיא בהמשך.  &lt;br&gt;
+6.	חובות ועלויות: &lt;br&gt;
+מלבד המאמץ הנדרש בהשתתפות במחקר אין עלויות או חובות נוספו. &lt;br&gt;
+7.	תגמול: &lt;br&gt;
+עבור השתתפותך בניסוי תקבל\י 40 ₪. &lt;br&gt;
+8.	שמירה על סודיות: &lt;br&gt;
+כל הנתונים המזהים במחקר ישמרו חסויים ולא יהיו זמינים לאף אחד מלבד צוות המחקר. &lt;br&gt;
+פנייה לצורך שאלות. &lt;br&gt;
+שמות החוקרים: פרופסור אילן פישר, תומר עוז. &lt;br&gt;
+טלפון לפניות: 0527721357 &lt;br&gt;
+כתובת דוא"ל: tomer.oz22@gmail.com &lt;br&gt;</t>
+  </si>
+  <si>
+    <t>בניסוי זה תתמודדי לא רק מול דוגמאות תיאורטיות כמו הטבלה שהוצגה זה עתה, אלא גם מול אנשים אמיתיים! בסוף הניסוי יוגרל משחק אחד ולפי שילוב הבחירות שלך ושל הנבדק האחר אשר יתמודד מולך במשחק זה יחושב הבונוס הכספי אותו תקבלי.</t>
+  </si>
+  <si>
+    <t>בניסוי זה תתמודד לא רק מול דוגמאות תיאורטיות כמו הטבלה שהוצגה זה עתה, אלא גם מול אנשים אמיתיים! בסוף הניסוי יוגרל משחק אחד ולפי שילוב הבחירות שלך ושל הנבדק האחר אשר יתמודד מולך במשחק זה יחושב הבונוס הכספי אותו תקבל.</t>
+  </si>
+  <si>
+    <t>במהלך הניסוי זהות המשתתפים האחרים, כמו גם הזהות שלך תשמר בסודיות מוחלטת, אם זאת כדי לאפשר לכולם להכיר מעט אחד את השני יוצגו התכונות והמאפיינים האישיים אותן דירג כל נבדק בעצמו. גם דירוגי התכונות והמאפיינים שלך יוצגו בפני הנבדקים האחרים.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -571,6 +470,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -593,7 +498,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -614,25 +519,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -913,22 +809,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" customWidth="1"/>
-    <col min="3" max="3" width="51.28515625" customWidth="1"/>
-    <col min="4" max="4" width="48.42578125" customWidth="1"/>
-    <col min="5" max="5" width="49.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.5546875" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" customWidth="1"/>
+    <col min="3" max="3" width="51.33203125" customWidth="1"/>
+    <col min="4" max="4" width="48.44140625" customWidth="1"/>
+    <col min="5" max="5" width="49.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -939,55 +835,55 @@
         <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-    </row>
-    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>65</v>
+    <row r="2" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -995,21 +891,21 @@
       <c r="I3" s="2"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>82</v>
+    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1017,21 +913,21 @@
       <c r="I4" s="2"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>96</v>
+    <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1039,21 +935,21 @@
       <c r="I5" s="2"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>97</v>
+    <row r="6" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1061,21 +957,21 @@
       <c r="I6" s="2"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>89</v>
+      <c r="C7" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1083,21 +979,21 @@
       <c r="I7" s="2"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>90</v>
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1105,21 +1001,21 @@
       <c r="I8" s="2"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>85</v>
+    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1127,21 +1023,21 @@
       <c r="I9" s="2"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>86</v>
+    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1149,7 +1045,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>1</v>
       </c>
@@ -1157,146 +1053,146 @@
         <v>8</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="270" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>2</v>
       </c>
@@ -1304,894 +1200,642 @@
         <v>8</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>106</v>
+        <v>109</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>40</v>
+        <v>28</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>116</v>
+      </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>34</v>
+        <v>8</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>40</v>
+        <v>23</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>40</v>
+        <v>24</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D38" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E38" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-    </row>
-    <row r="38" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="7" t="s">
+      <c r="C39" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-    </row>
-    <row r="39" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="7" t="s">
+      <c r="C40" t="s">
+        <v>113</v>
+      </c>
+      <c r="D40" t="s">
+        <v>113</v>
+      </c>
+      <c r="E40" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-    </row>
-    <row r="42" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-    </row>
-    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C43" s="6" t="s">
+      <c r="C41" t="s">
+        <v>106</v>
+      </c>
+      <c r="D41" t="s">
+        <v>106</v>
+      </c>
+      <c r="E41" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" t="s">
         <v>107</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D42" t="s">
         <v>107</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E42" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
         <v>108</v>
       </c>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-    </row>
-    <row r="44" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-    </row>
-    <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-    </row>
-    <row r="48" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
-        <v>44</v>
+      <c r="D43" t="s">
+        <v>108</v>
+      </c>
+      <c r="E43" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" t="s">
+        <v>85</v>
+      </c>
+      <c r="E44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" t="s">
+        <v>102</v>
+      </c>
+      <c r="D46" t="s">
+        <v>102</v>
+      </c>
+      <c r="E46" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" t="s">
+        <v>105</v>
+      </c>
+      <c r="D47" t="s">
+        <v>105</v>
+      </c>
+      <c r="E47" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>81</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
-        <v>39</v>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>81</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
-        <v>39</v>
+        <v>92</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+    </row>
+    <row r="50" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>81</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>115</v>
-      </c>
-      <c r="B52" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" t="s">
-        <v>138</v>
-      </c>
-      <c r="D52" t="s">
-        <v>138</v>
-      </c>
-      <c r="E52" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>115</v>
-      </c>
-      <c r="B53" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" t="s">
-        <v>143</v>
-      </c>
-      <c r="D53" t="s">
-        <v>143</v>
-      </c>
-      <c r="E53" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>115</v>
-      </c>
-      <c r="B54" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" t="s">
-        <v>144</v>
-      </c>
-      <c r="D54" t="s">
-        <v>144</v>
-      </c>
-      <c r="E54" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>115</v>
-      </c>
-      <c r="B55" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" t="s">
-        <v>145</v>
-      </c>
-      <c r="D55" t="s">
-        <v>145</v>
-      </c>
-      <c r="E55" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>115</v>
-      </c>
-      <c r="B56" t="s">
-        <v>116</v>
-      </c>
-      <c r="C56" t="s">
-        <v>119</v>
-      </c>
-      <c r="D56" t="s">
-        <v>119</v>
-      </c>
-      <c r="E56" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>115</v>
-      </c>
-      <c r="B57" t="s">
-        <v>117</v>
-      </c>
-      <c r="C57" t="s">
-        <v>121</v>
-      </c>
-      <c r="D57" t="s">
-        <v>121</v>
-      </c>
-      <c r="E57" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>115</v>
-      </c>
-      <c r="B58" t="s">
-        <v>140</v>
-      </c>
-      <c r="C58" t="s">
-        <v>139</v>
-      </c>
-      <c r="D58" t="s">
-        <v>139</v>
-      </c>
-      <c r="E58" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>115</v>
-      </c>
-      <c r="B59" t="s">
-        <v>141</v>
-      </c>
-      <c r="C59" t="s">
-        <v>142</v>
-      </c>
-      <c r="D59" t="s">
-        <v>142</v>
-      </c>
-      <c r="E59" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>115</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>115</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-    </row>
-    <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>115</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/ipa_2/myUtils/instructions.xlsx
+++ b/ipa_2/myUtils/instructions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3A60CA-E619-4622-B770-D46B123D3A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA342E52-712E-4F6A-A9BC-050134DDB54B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="302" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-1740" windowWidth="23256" windowHeight="12456" tabRatio="302" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -265,12 +265,6 @@
     <t>המשך לפרופיל הבא</t>
   </si>
   <si>
-    <t>מיוד יוצג פרופיל של משתתף חדש. התבונן היטב בהעדפות והמאפיינים השונים ונסה להכיר את אותו אדם.</t>
-  </si>
-  <si>
-    <t>מיוד יוצג פרופיל של משתתף חדש. התבונני היטב בהעדפות והמאפיינים השונים ונסי להכיר את אותו אדם.</t>
-  </si>
-  <si>
     <t>בחלק זה של הניסוי זה תתבקש לדרג את המאפיינים שלך, אלא שהפעם תתבקש לדרג את המאפיינים, לא כפי שאתה כעת, אלא כפי שהיית רוצה להיות באופן אידאלי.&lt;br&gt;
 התשובה לשאלות תעשה על ידי הזזה של סמן הנמצא בין שני קצוות, כך שהמקום אותו תבחר יתאר את המקום אליו אתה שואף וכיצד היית רוצה להיות במצב אידאלי.&lt;br&gt;
 יש ללחוץ על הסמן על מנת לבחור את המיקום על הסקאלה. לאחר בחירת מיקום הסמן, לחץ על הכפתור אשר יופיע בתחתית המסך.</t>
@@ -420,35 +414,38 @@
     <t>במהלך הניסוי תוצגנה מספר סיטואציות המערבות שני אנשים שבהן כל אחד יכול להרוויח סכום כספי. לכל סיטואציה קיימות שתי אפשרויות בחירה שלך ושתי אפשרויות בחירה של האחר או האחרת. לכל שילוב של בחירות ישנה תוצאה מספרית המיועדת עבורך ותוצאה מספרית המיועדת עבור האחר או האחרת. אפשרויות הבחירה והתוצאות השונות מיוצגות בטבלה. ליחצי על הכפתור "הצג טבלה" על מנת להתבונן בסיטואציה לדוגמה.</t>
   </si>
   <si>
+    <t>בניסוי זה תתמודדי לא רק מול דוגמאות תיאורטיות כמו הטבלה שהוצגה זה עתה, אלא גם מול אנשים אמיתיים! בסוף הניסוי יוגרל משחק אחד ולפי שילוב הבחירות שלך ושל הנבדק האחר אשר יתמודד מולך במשחק זה יחושב הבונוס הכספי אותו תקבלי.</t>
+  </si>
+  <si>
+    <t>בניסוי זה תתמודד לא רק מול דוגמאות תיאורטיות כמו הטבלה שהוצגה זה עתה, אלא גם מול אנשים אמיתיים! בסוף הניסוי יוגרל משחק אחד ולפי שילוב הבחירות שלך ושל הנבדק האחר אשר יתמודד מולך במשחק זה יחושב הבונוס הכספי אותו תקבל.</t>
+  </si>
+  <si>
+    <t>במהלך הניסוי זהות המשתתפים האחרים, כמו גם הזהות שלך תשמר בסודיות מוחלטת, אם זאת כדי לאפשר לכולם להכיר מעט אחד את השני יוצגו התכונות והמאפיינים האישיים אותן דירג כל נבדק בעצמו. גם דירוגי התכונות והמאפיינים שלך יוצגו בפני נבדקים האחרים, תוך שמירת זהותך בסודיות מלאה (כלומר, נבדקים אחרים יוכלו לראות את דירוגי התוכנות, אך הם לא יוכלו לדעת למי תכונות אלו שייכות).</t>
+  </si>
+  <si>
+    <t>מיד יוצג פרופיל של משתתף חדש. התבונן היטב בהעדפות והמאפיינים השונים ונסה להכיר את אותו אדם.</t>
+  </si>
+  <si>
+    <t>מיד יוצג פרופיל של משתתף חדש. התבונני היטב בהעדפות והמאפיינים השונים ונסה להכיר את אותו אדם.</t>
+  </si>
+  <si>
     <t>שלום רב,
-אנו מבקשים ממך להשתתף במחקר בשם: "אינטראקציות ופרופילים" אשר מטרתו היא ללמוד על אופן קבלת ההחלטות של אנשים במצבים בין אישיים.  השתתפותך במחקר עשויה לתרום בצורה משמעותית להבנת הנושא. המחקר נערך על ידי המעבדה לחקר דילמות חברתיות בביה"ס למדעי הפסיכולוגיה באוניברסיטת חיפה בראשותו של פרופ' אילן פישר. &lt;br&gt;
+אנו מבקשים ממך להשתתף במחקר בשם: "משחקים חברתיים" אשר מטרתו היא ללמוד על אופן קבלת ההחלטות של אנשים במצבים בין אישיים.  השתתפותך במחקר צפויה לתרום בצורה משמעותית להבנת הנושא. המחקר נערך על ידי המעבדה לחקר דילמות חברתיות בביה"ס למדעי הפסיכולוגיה באוניברסיטת חיפה בראשותו של פרופ' אילן פישר. &lt;br&gt;
 2.	מטרת המחקר: &lt;br&gt;
-מטרת המחקר הינה ללמוד את האופן שבו מתקבלות ההחלטות במצבים בין אישיים שונים אשר מוגדרים ע''י אפשרויות פעולה שונות ותוצאותיהן. &lt;br&gt;
+מטרת המחקר הינה ללמוד אודות האופן שבו מתקבלות ההחלטות במצבים בין אישיים. &lt;br&gt;
 3.	מה כולל המחקר? &lt;br&gt;
 במסגרת המחקר תתבקש/י להשתתף בניסוי. משך הניסוי יהיה כ-45 דקות. &lt;br&gt;
 4.	האם ישנם סיכונים/חוסר נוחות שעשויים להתלוות להשתתפות במחקר? &lt;br&gt;
 אין. &lt;br&gt;
 5.	האם אני חייב/ת להשתתף? &lt;br&gt;
 חשוב לנו להבהיר כי ההשתתפות במחקר הנה מרצון ואינך חייב/ת להשתתף במחקר. לאי הסכמה שלך להשתתף או להפסקת השתתפותך במהלך הניסוי לא תהיה כל השלכה עליך ולא תפגע בך בכל דרך שהיא בהמשך.  &lt;br&gt;
-6.	חובות ועלויות: &lt;br&gt;
-מלבד המאמץ הנדרש בהשתתפות במחקר אין עלויות או חובות נוספו. &lt;br&gt;
-7.	תגמול: &lt;br&gt;
+6.	תגמול: &lt;br&gt;
 עבור השתתפותך בניסוי תקבל\י 40 ₪. &lt;br&gt;
-8.	שמירה על סודיות: &lt;br&gt;
+7.	שמירה על סודיות: &lt;br&gt;
 כל הנתונים המזהים במחקר ישמרו חסויים ולא יהיו זמינים לאף אחד מלבד צוות המחקר. &lt;br&gt;
 פנייה לצורך שאלות. &lt;br&gt;
 שמות החוקרים: פרופסור אילן פישר, תומר עוז. &lt;br&gt;
-טלפון לפניות: 0527721357 &lt;br&gt;
 כתובת דוא"ל: tomer.oz22@gmail.com &lt;br&gt;</t>
-  </si>
-  <si>
-    <t>בניסוי זה תתמודדי לא רק מול דוגמאות תיאורטיות כמו הטבלה שהוצגה זה עתה, אלא גם מול אנשים אמיתיים! בסוף הניסוי יוגרל משחק אחד ולפי שילוב הבחירות שלך ושל הנבדק האחר אשר יתמודד מולך במשחק זה יחושב הבונוס הכספי אותו תקבלי.</t>
-  </si>
-  <si>
-    <t>בניסוי זה תתמודד לא רק מול דוגמאות תיאורטיות כמו הטבלה שהוצגה זה עתה, אלא גם מול אנשים אמיתיים! בסוף הניסוי יוגרל משחק אחד ולפי שילוב הבחירות שלך ושל הנבדק האחר אשר יתמודד מולך במשחק זה יחושב הבונוס הכספי אותו תקבל.</t>
-  </si>
-  <si>
-    <t>במהלך הניסוי זהות המשתתפים האחרים, כמו גם הזהות שלך תשמר בסודיות מוחלטת, אם זאת כדי לאפשר לכולם להכיר מעט אחד את השני יוצגו התכונות והמאפיינים האישיים אותן דירג כל נבדק בעצמו. גם דירוגי התכונות והמאפיינים שלך יוצגו בפני הנבדקים האחרים.</t>
   </si>
 </sst>
 </file>
@@ -811,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="C12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1053,13 +1050,13 @@
         <v>8</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -1200,13 +1197,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>40</v>
@@ -1223,13 +1220,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -1307,13 +1304,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -1328,13 +1325,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -1370,19 +1367,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -1390,13 +1387,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -1453,13 +1450,13 @@
         <v>36</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -1474,13 +1471,13 @@
         <v>42</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -1495,13 +1492,13 @@
         <v>43</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -1513,16 +1510,16 @@
         <v>5</v>
       </c>
       <c r="B33" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>90</v>
-      </c>
       <c r="D33" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -1534,16 +1531,16 @@
         <v>5</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="D34" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>95</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -1555,16 +1552,16 @@
         <v>5</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>94</v>
-      </c>
       <c r="D35" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -1579,13 +1576,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -1645,155 +1642,155 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D40" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E40" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B41" t="s">
         <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D41" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E41" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D42" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E42" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D43" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E43" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B44" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D44" t="s">
+        <v>83</v>
+      </c>
+      <c r="E44" t="s">
         <v>82</v>
-      </c>
-      <c r="C44" t="s">
-        <v>85</v>
-      </c>
-      <c r="D44" t="s">
-        <v>85</v>
-      </c>
-      <c r="E44" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" t="s">
         <v>81</v>
       </c>
-      <c r="B45" t="s">
-        <v>83</v>
-      </c>
       <c r="C45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E45" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B46" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C46" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D46" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E46" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B47" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C47" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D47" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E47" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B48" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="D48" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E48" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>95</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
@@ -1802,19 +1799,19 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B49" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C49" s="6" t="s">
-        <v>94</v>
-      </c>
       <c r="D49" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
@@ -1823,19 +1820,19 @@
     </row>
     <row r="50" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B50" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>90</v>
-      </c>
       <c r="D50" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/ipa_2/myUtils/instructions.xlsx
+++ b/ipa_2/myUtils/instructions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA342E52-712E-4F6A-A9BC-050134DDB54B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4569FD-7DA5-4B42-A075-4919E636E0E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-1740" windowWidth="23256" windowHeight="12456" tabRatio="302" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="302" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -298,25 +298,7 @@
     <t>other</t>
   </si>
   <si>
-    <t>במידה ואת תבחרי - {} - והאדם השני יבחר - {}, כמה את תקבלי?</t>
-  </si>
-  <si>
-    <t>במידה ואתה תבחר - {} - והאדם השני יבחר - {}, כמה אתה תקבל?</t>
-  </si>
-  <si>
-    <t>במידה ואת תבחרי - {} - והאדם השני יבחר - {}, כמה האדם השני יקבל?</t>
-  </si>
-  <si>
-    <t>במידה ואתה תבחר - {} - והאדם השני יבחר - {}, כמה האדם השני יקבל?</t>
-  </si>
-  <si>
     <t>ExplanationTexts</t>
-  </si>
-  <si>
-    <t>את בחרת, אם האדם האחר יבחר, את תקבלי, והאחר יקבל, ואם האדם אחר יבחר</t>
-  </si>
-  <si>
-    <t>אתה בחרת, אם האדם האחר יבחר, אתה תקבל, והאחר יקבל, ואם האדם האחר יבחר</t>
   </si>
   <si>
     <t>youGet</t>
@@ -414,12 +396,6 @@
     <t>במהלך הניסוי תוצגנה מספר סיטואציות המערבות שני אנשים שבהן כל אחד יכול להרוויח סכום כספי. לכל סיטואציה קיימות שתי אפשרויות בחירה שלך ושתי אפשרויות בחירה של האחר או האחרת. לכל שילוב של בחירות ישנה תוצאה מספרית המיועדת עבורך ותוצאה מספרית המיועדת עבור האחר או האחרת. אפשרויות הבחירה והתוצאות השונות מיוצגות בטבלה. ליחצי על הכפתור "הצג טבלה" על מנת להתבונן בסיטואציה לדוגמה.</t>
   </si>
   <si>
-    <t>בניסוי זה תתמודדי לא רק מול דוגמאות תיאורטיות כמו הטבלה שהוצגה זה עתה, אלא גם מול אנשים אמיתיים! בסוף הניסוי יוגרל משחק אחד ולפי שילוב הבחירות שלך ושל הנבדק האחר אשר יתמודד מולך במשחק זה יחושב הבונוס הכספי אותו תקבלי.</t>
-  </si>
-  <si>
-    <t>בניסוי זה תתמודד לא רק מול דוגמאות תיאורטיות כמו הטבלה שהוצגה זה עתה, אלא גם מול אנשים אמיתיים! בסוף הניסוי יוגרל משחק אחד ולפי שילוב הבחירות שלך ושל הנבדק האחר אשר יתמודד מולך במשחק זה יחושב הבונוס הכספי אותו תקבל.</t>
-  </si>
-  <si>
     <t>במהלך הניסוי זהות המשתתפים האחרים, כמו גם הזהות שלך תשמר בסודיות מוחלטת, אם זאת כדי לאפשר לכולם להכיר מעט אחד את השני יוצגו התכונות והמאפיינים האישיים אותן דירג כל נבדק בעצמו. גם דירוגי התכונות והמאפיינים שלך יוצגו בפני נבדקים האחרים, תוך שמירת זהותך בסודיות מלאה (כלומר, נבדקים אחרים יוכלו לראות את דירוגי התוכנות, אך הם לא יוכלו לדעת למי תכונות אלו שייכות).</t>
   </si>
   <si>
@@ -427,6 +403,12 @@
   </si>
   <si>
     <t>מיד יוצג פרופיל של משתתף חדש. התבונני היטב בהעדפות והמאפיינים השונים ונסה להכיר את אותו אדם.</t>
+  </si>
+  <si>
+    <t>בניסוי זה תתמודד לא רק מול דוגמאות תיאורטיות כמו הטבלה שהוצגה זה עתה, אלא גם מול אנשים אמיתיים! בסוף הניסוי יוגרל משחק אחד ולפי שילוב הבחירות שלך ושל הנבדק האחר אשר יתמודד מולך במשחק זה יחושב הבונוס הכספי אותו תקבל. שים לב, הבונוס הכספי ינוע בין 0 עד 50 ש''ח נוספים על התשלום הרגיל על ההשתתפות!</t>
+  </si>
+  <si>
+    <t>בניסוי זה תתמודדי לא רק מול דוגמאות תיאורטיות כמו הטבלה שהוצגה זה עתה, אלא גם מול אנשים אמיתיים! בסוף הניסוי יוגרל משחק אחד ולפי שילוב הבחירות שלך ושל הנבדק האחר אשר יתמודד מולך במשחק זה יחושב הבונוס הכספי אותו תקבלי. שימי לב, הבונוס הכספי ינוע בין 0 עד 50 ש''ח נוספים על התשלום הרגיל על ההשתתפות!</t>
   </si>
   <si>
     <t>שלום רב,
@@ -434,18 +416,36 @@
 2.	מטרת המחקר: &lt;br&gt;
 מטרת המחקר הינה ללמוד אודות האופן שבו מתקבלות ההחלטות במצבים בין אישיים. &lt;br&gt;
 3.	מה כולל המחקר? &lt;br&gt;
-במסגרת המחקר תתבקש/י להשתתף בניסוי. משך הניסוי יהיה כ-45 דקות. &lt;br&gt;
+במסגרת המחקר תתבקש/י לבצע מטלות ממוחשבות הכוללות דירוג של מאפיינים שונים וקבלת החלטות במסגרת משחקים חברתיים מול משתתפים אחרים. במסגרת הניסוי תוכל לראות דירוגים של מאפיינים והעדפות של משתתפים אחרים וכמו כן הם יוכלו לראות את התכונות והמאפיינים שאתה תדרג, כל זאת ללא חשיפת כל פרט מזהה שלך או של משתתפים אחרים. בשונה מהדירוגים של התכונות וההעדפות, ההחלטות שלך ושל משתתפים אחרים יישארו חסויות, כך שמשתתפים אחרים לא יוכלו לראות את החלטותיך ואתה לא תוכל לראות את החלטותיהם. משך הניסוי יהיה כ-45 עד 60 דקות.&lt;br&gt;
 4.	האם ישנם סיכונים/חוסר נוחות שעשויים להתלוות להשתתפות במחקר? &lt;br&gt;
 אין. &lt;br&gt;
 5.	האם אני חייב/ת להשתתף? &lt;br&gt;
 חשוב לנו להבהיר כי ההשתתפות במחקר הנה מרצון ואינך חייב/ת להשתתף במחקר. לאי הסכמה שלך להשתתף או להפסקת השתתפותך במהלך הניסוי לא תהיה כל השלכה עליך ולא תפגע בך בכל דרך שהיא בהמשך.  &lt;br&gt;
 6.	תגמול: &lt;br&gt;
-עבור השתתפותך בניסוי תקבל\י 40 ₪. &lt;br&gt;
+עבור השתתפותך בניסוי תקבל\י 40 ₪. יתאפשר בונוס כספי נוסף כתלות בביצוע אשר נוע בין 0 ל-50 ש''ח. &lt;br&gt;
 7.	שמירה על סודיות: &lt;br&gt;
 כל הנתונים המזהים במחקר ישמרו חסויים ולא יהיו זמינים לאף אחד מלבד צוות המחקר. &lt;br&gt;
 פנייה לצורך שאלות. &lt;br&gt;
 שמות החוקרים: פרופסור אילן פישר, תומר עוז. &lt;br&gt;
 כתובת דוא"ל: tomer.oz22@gmail.com &lt;br&gt;</t>
+  </si>
+  <si>
+    <t>במידה ואתה תבחר - {} - והמשתתף השני יבחר - {}, כמה אתה תקבל?</t>
+  </si>
+  <si>
+    <t>במידה ואתה תבחר - {} - והמשתתף השני יבחר - {}, כמה האדם השני יקבל?</t>
+  </si>
+  <si>
+    <t>במידה ואת תבחרי - {} - והמשתתף השני יבחר - {}, כמה את תקבלי?</t>
+  </si>
+  <si>
+    <t>במידה ואת תבחרי - {} - והמשתתף השני יבחר - {}, כמה האדם השני יקבל?</t>
+  </si>
+  <si>
+    <t>אתה בחרת, אם המשתתף האחר יבחר, אתה תקבל, והאחר יקבל, ואם המשתתף האחר יבחר</t>
+  </si>
+  <si>
+    <t>את בחרת, אם המשתתף האחר יבחר, את תקבלי, והאחר יקבל, ואם המשתתף אחר יבחר</t>
   </si>
 </sst>
 </file>
@@ -808,20 +808,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" customWidth="1"/>
-    <col min="3" max="3" width="51.33203125" customWidth="1"/>
-    <col min="4" max="4" width="48.44140625" customWidth="1"/>
-    <col min="5" max="5" width="49.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="51.28515625" customWidth="1"/>
+    <col min="4" max="4" width="48.42578125" customWidth="1"/>
+    <col min="5" max="5" width="49.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -845,7 +845,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>47</v>
       </c>
@@ -866,7 +866,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>47</v>
       </c>
@@ -888,7 +888,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>47</v>
       </c>
@@ -910,7 +910,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>47</v>
       </c>
@@ -932,7 +932,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>47</v>
       </c>
@@ -954,7 +954,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>47</v>
       </c>
@@ -976,7 +976,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>47</v>
       </c>
@@ -998,7 +998,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>47</v>
       </c>
@@ -1020,7 +1020,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>47</v>
       </c>
@@ -1042,7 +1042,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>1</v>
       </c>
@@ -1050,20 +1050,20 @@
         <v>8</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>1</v>
       </c>
@@ -1084,7 +1084,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>1</v>
       </c>
@@ -1105,7 +1105,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>1</v>
       </c>
@@ -1126,7 +1126,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>1</v>
       </c>
@@ -1147,7 +1147,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>1</v>
       </c>
@@ -1168,7 +1168,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>1</v>
       </c>
@@ -1189,7 +1189,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="270" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>2</v>
       </c>
@@ -1197,13 +1197,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>40</v>
@@ -1212,7 +1212,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>3</v>
       </c>
@@ -1233,7 +1233,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>3</v>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -1275,7 +1275,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>3</v>
       </c>
@@ -1296,7 +1296,7 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>9</v>
       </c>
@@ -1304,20 +1304,20 @@
         <v>8</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>9</v>
       </c>
@@ -1325,20 +1325,20 @@
         <v>8</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>9</v>
       </c>
@@ -1359,7 +1359,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>4</v>
       </c>
@@ -1367,19 +1367,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -1387,20 +1387,20 @@
         <v>8</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>5</v>
       </c>
@@ -1421,7 +1421,7 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>5</v>
       </c>
@@ -1442,7 +1442,7 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>5</v>
       </c>
@@ -1450,20 +1450,20 @@
         <v>36</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>5</v>
       </c>
@@ -1471,20 +1471,20 @@
         <v>42</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>5</v>
       </c>
@@ -1492,83 +1492,83 @@
         <v>43</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>29</v>
       </c>
@@ -1589,7 +1589,7 @@
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>27</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>27</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>27</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -1648,16 +1648,16 @@
         <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D40" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E40" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>79</v>
       </c>
@@ -1665,16 +1665,16 @@
         <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D41" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E41" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>79</v>
       </c>
@@ -1682,16 +1682,16 @@
         <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D42" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E42" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>79</v>
       </c>
@@ -1699,16 +1699,16 @@
         <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E43" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>79</v>
       </c>
@@ -1716,16 +1716,16 @@
         <v>80</v>
       </c>
       <c r="C44" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="D44" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="E44" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>79</v>
       </c>
@@ -1733,106 +1733,106 @@
         <v>81</v>
       </c>
       <c r="C45" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="D45" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="E45" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>79</v>
       </c>
       <c r="B46" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C46" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D46" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E46" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>79</v>
       </c>
       <c r="B47" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C47" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D47" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E47" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>79</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>79</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
     </row>
-    <row r="50" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>79</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/ipa_2/myUtils/instructions.xlsx
+++ b/ipa_2/myUtils/instructions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4569FD-7DA5-4B42-A075-4919E636E0E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F687CE9-26BE-4EF0-AC43-7684C6A1F09A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="302" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="302" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -365,9 +365,6 @@
     <t>השלב הבא</t>
   </si>
   <si>
-    <t>כעת, לצורך הדוגמה, אתה יכול לבחור בין {} , לבין {} וכך גם האדם השני. כל אחד מכם בוחר לפי ראות עיניו, ומתוך הניסיון להגיע לתוצאה הטובה ביותר עבורו. אתה יכול לבחור או בשורה הראשונה ({}) או בשורה השניה ({}). כך גם האדם השני יכול לבחור בין הטור הימני לשמאלי. בכל צירוף של שתי בחירות רשום כמה אתה תקבל וכמה האחר. התוצאה שלך רשומה תמיד מצד שמאל. לצורך בדיקת הבנה - בחר כעת את השורה התחונה - {}.</t>
-  </si>
-  <si>
     <t>יפה מאוד! כאשר אתה לוחץ על אחת השורות, זה אומר שבחרת באפשרות הזו. כמה שתקבל תלוי במה יבחר האדם השני. בזמן שאתה מבצע את בחירתך אינך יכול לראות מה האדם השני בחר, אך גם כשאר השחקן השני בוחר, אתה לא יכול לראות את הבחירה שלו. התוצאות יקבעו רק לאחר מכן. בוא נמשיך בלמידה - לחץ עכשיו על האופציה העליונה.</t>
   </si>
   <si>
@@ -446,6 +443,9 @@
   </si>
   <si>
     <t>את בחרת, אם המשתתף האחר יבחר, את תקבלי, והאחר יקבל, ואם המשתתף אחר יבחר</t>
+  </si>
+  <si>
+    <t>כעת, לצורך הדוגמה, אתה יכול לבחור בין {} , לבין {} וכך גם האדם השני. כל אחד מכם בוחר לפי ראות עיניו, ומתוך הניסיון להגיע לתוצאה הטובה ביותר עבורו. אתה יכול לבחור או בשורה הראשונה ({}) או בשורה השניה ({}). כך גם האדם השני יכול לבחור בין הטור הימני לשמאלי. בכל צירוף של שתי בחירות רשום כמה אתה תקבל וכמה האחר. התוצאות האפשריות שלך רשומות תמיד מצד שמאל בכל תא, והן יופיעו בצבע סגול, התוצאות האפשריות של האחר תמיד יופיעו מצד ימין בכל תא והן יופיעו בצבע כתום. לצורך בדיקת הבנה - בחר כעת את השורה התחונה - {}.</t>
   </si>
 </sst>
 </file>
@@ -808,20 +808,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="C39" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" customWidth="1"/>
-    <col min="3" max="3" width="51.28515625" customWidth="1"/>
-    <col min="4" max="4" width="48.42578125" customWidth="1"/>
-    <col min="5" max="5" width="49.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.5546875" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" customWidth="1"/>
+    <col min="3" max="3" width="51.33203125" customWidth="1"/>
+    <col min="4" max="4" width="48.44140625" customWidth="1"/>
+    <col min="5" max="5" width="49.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -845,7 +845,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>47</v>
       </c>
@@ -866,7 +866,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>47</v>
       </c>
@@ -888,7 +888,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>47</v>
       </c>
@@ -910,7 +910,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>47</v>
       </c>
@@ -932,7 +932,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>47</v>
       </c>
@@ -954,7 +954,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>47</v>
       </c>
@@ -976,7 +976,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>47</v>
       </c>
@@ -998,7 +998,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>47</v>
       </c>
@@ -1020,7 +1020,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>47</v>
       </c>
@@ -1042,7 +1042,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>1</v>
       </c>
@@ -1050,20 +1050,20 @@
         <v>8</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>1</v>
       </c>
@@ -1084,7 +1084,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>1</v>
       </c>
@@ -1105,7 +1105,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>1</v>
       </c>
@@ -1126,7 +1126,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>1</v>
       </c>
@@ -1147,7 +1147,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>1</v>
       </c>
@@ -1168,7 +1168,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>1</v>
       </c>
@@ -1189,7 +1189,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="270" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>2</v>
       </c>
@@ -1212,7 +1212,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>3</v>
       </c>
@@ -1233,7 +1233,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>3</v>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -1275,7 +1275,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>3</v>
       </c>
@@ -1296,7 +1296,7 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>9</v>
       </c>
@@ -1304,20 +1304,20 @@
         <v>8</v>
       </c>
       <c r="C23" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>102</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>9</v>
       </c>
@@ -1325,20 +1325,20 @@
         <v>8</v>
       </c>
       <c r="C24" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>9</v>
       </c>
@@ -1359,7 +1359,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>4</v>
       </c>
@@ -1367,19 +1367,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" s="11" t="s">
         <v>110</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>111</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -1387,20 +1387,20 @@
         <v>8</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>5</v>
       </c>
@@ -1421,7 +1421,7 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>5</v>
       </c>
@@ -1442,7 +1442,7 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>5</v>
       </c>
@@ -1463,7 +1463,7 @@
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>5</v>
       </c>
@@ -1471,20 +1471,20 @@
         <v>42</v>
       </c>
       <c r="C31" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>109</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>5</v>
       </c>
@@ -1505,7 +1505,7 @@
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -1513,20 +1513,20 @@
         <v>82</v>
       </c>
       <c r="C33" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>118</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>5</v>
       </c>
@@ -1547,7 +1547,7 @@
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>5</v>
       </c>
@@ -1568,7 +1568,7 @@
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>29</v>
       </c>
@@ -1589,7 +1589,7 @@
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>27</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>27</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>27</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -1648,16 +1648,16 @@
         <v>8</v>
       </c>
       <c r="C40" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" t="s">
+        <v>104</v>
+      </c>
+      <c r="E40" t="s">
         <v>105</v>
       </c>
-      <c r="D40" t="s">
-        <v>105</v>
-      </c>
-      <c r="E40" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>79</v>
       </c>
@@ -1665,16 +1665,16 @@
         <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="D41" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="E41" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>79</v>
       </c>
@@ -1682,16 +1682,16 @@
         <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E42" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>79</v>
       </c>
@@ -1699,16 +1699,16 @@
         <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E43" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>79</v>
       </c>
@@ -1716,16 +1716,16 @@
         <v>80</v>
       </c>
       <c r="C44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E44" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>79</v>
       </c>
@@ -1733,16 +1733,16 @@
         <v>81</v>
       </c>
       <c r="C45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E45" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>79</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>79</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>79</v>
       </c>
@@ -1797,7 +1797,7 @@
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>79</v>
       </c>
@@ -1818,7 +1818,7 @@
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
     </row>
-    <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>79</v>
       </c>
@@ -1826,13 +1826,13 @@
         <v>82</v>
       </c>
       <c r="C50" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E50" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/ipa_2/myUtils/instructions.xlsx
+++ b/ipa_2/myUtils/instructions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F687CE9-26BE-4EF0-AC43-7684C6A1F09A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03075779-55E4-475D-A377-D52AA2984AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="302" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="1725" windowWidth="21840" windowHeight="13020" tabRatio="302" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="121">
   <si>
     <t>phase</t>
   </si>
@@ -446,6 +446,12 @@
   </si>
   <si>
     <t>כעת, לצורך הדוגמה, אתה יכול לבחור בין {} , לבין {} וכך גם האדם השני. כל אחד מכם בוחר לפי ראות עיניו, ומתוך הניסיון להגיע לתוצאה הטובה ביותר עבורו. אתה יכול לבחור או בשורה הראשונה ({}) או בשורה השניה ({}). כך גם האדם השני יכול לבחור בין הטור הימני לשמאלי. בכל צירוף של שתי בחירות רשום כמה אתה תקבל וכמה האחר. התוצאות האפשריות שלך רשומות תמיד מצד שמאל בכל תא, והן יופיעו בצבע סגול, התוצאות האפשריות של האחר תמיד יופיעו מצד ימין בכל תא והן יופיעו בצבע כתום. לצורך בדיקת הבנה - בחר כעת את השורה התחונה - {}.</t>
+  </si>
+  <si>
+    <t>לאחר שתצפי בתכונות והמאפיינים של המשתתף האחר, תוצג בפניך טבלה דומה לזו שהוצגה קודם אשר מתארת משחק בו קיימות שתי אפשרויות בחירה שלך ושתי אפשרויות בחירה של האחר או האחרת. תצטרכי להחליט כיצד לפעול מול האדם אשר בתכונות ובמאפיינים שלו צפית, והאדם האחר יצטרף להחליט כיצד לפעול מולך. אם תרצי להתרשם פעם נוספת לפני החלטתך מהתכונות והמאפיינים של האדם האחר, תוכלי ללחוץ על הכפתור "הצג שוב". אחרי שתבחרי באחת האפשרויות, יוצג בפניך אדם אחר.</t>
+  </si>
+  <si>
+    <t>לאחר שתצפה בתכונות והמאפיינים של המשתתף האחר, תוצג בפניך טבלה דומה לזו שהוצגה קודם אשר מתארת משחק בו קיימות שתי אפשרויות בחירה שלך ושתי אפשרויות בחירה של האחר או האחרת. תצטרך להחליט כיצד לפעול מול האדם אשר בתכונות ובמאפיינים שלו צפית, והאדם האחר יצטרף להחליט כיצד לפעול מולך. אם תרצה להתרשם פעם נוספת לפני החלטתך מהתכונות והמאפיינים של האדם האחר, תוכל ללחוץ על הכפתור "הצג שוב". אחרי שתבחר באחת האפשרויות, יוצג בפניך אדם אחר.</t>
   </si>
 </sst>
 </file>
@@ -806,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C39" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1400,21 +1406,21 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>25</v>
+        <v>8</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -1426,121 +1432,121 @@
         <v>5</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>91</v>
+        <v>24</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -1552,109 +1558,113 @@
         <v>5</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>51</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B39" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C40" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D40" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E40" s="9" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>79</v>
-      </c>
-      <c r="B40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" t="s">
-        <v>104</v>
-      </c>
-      <c r="D40" t="s">
-        <v>104</v>
-      </c>
-      <c r="E40" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -1665,16 +1675,16 @@
         <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="D41" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="E41" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>79</v>
       </c>
@@ -1682,16 +1692,16 @@
         <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="D42" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="E42" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>79</v>
       </c>
@@ -1699,13 +1709,13 @@
         <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -1713,16 +1723,16 @@
         <v>79</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D44" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="E44" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -1730,16 +1740,16 @@
         <v>79</v>
       </c>
       <c r="B45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -1747,16 +1757,16 @@
         <v>79</v>
       </c>
       <c r="B46" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C46" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="D46" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="E46" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -1764,74 +1774,91 @@
         <v>79</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C47" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D47" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E47" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>79</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
+      <c r="B48" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" t="s">
+        <v>97</v>
+      </c>
+      <c r="D48" t="s">
+        <v>97</v>
+      </c>
+      <c r="E48" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>79</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
     </row>
-    <row r="50" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>79</v>
       </c>
       <c r="B50" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+    </row>
+    <row r="51" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C51" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D51" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E51" s="6" t="s">
         <v>117</v>
       </c>
     </row>

--- a/ipa_2/myUtils/instructions.xlsx
+++ b/ipa_2/myUtils/instructions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03075779-55E4-475D-A377-D52AA2984AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4E8698-1AAF-4022-BFEE-8556D2117FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="1725" windowWidth="21840" windowHeight="13020" tabRatio="302" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="302" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="125">
   <si>
     <t>phase</t>
   </si>
@@ -142,9 +142,6 @@
   </si>
   <si>
     <t>pitctures_names</t>
-  </si>
-  <si>
-    <t>report_instructions</t>
   </si>
   <si>
     <t>concent_agreement</t>
@@ -201,14 +198,6 @@
   </si>
   <si>
     <t>endInstructions</t>
-  </si>
-  <si>
-    <t>הנתונים נשמרו, קראי כעת לנסיין.ית על מנת שהיא או הוא יוכלו ליסגור את הניסוי. 
-בעוד מספר דקות תקבלי תשלום או קרדיט ובנוסף יחושב עבורך הבונוס כתלות בביצועיך.</t>
-  </si>
-  <si>
-    <t>הנתונים נשמרו, קרא כעת לנסיין.ית על מנת שהיא או הוא יוכלו ליסגור את הניסוי.
-בעוד מספר דקות תקבל תשלום או קרדיט ובנוסף יחושב עבורך הבונוס כתלות בביצועיך.</t>
   </si>
   <si>
     <t>continueButtonText</t>
@@ -323,12 +312,6 @@
   <si>
     <t>כעת יוצג בשנית הפרופיל של אותו משתתף, זה שצפית בו כעת &lt;br&gt;
 כעת תוכלי לעבור מהר יותר בין במאפיינים או ההעדפות ולהתעקב היכן שתרצי. מטרתך נותרת לנסות להכיר את אותו אדם ובסופו של דבר להחליט באיזה פעולה לנקוט מולו</t>
-  </si>
-  <si>
-    <t>כעת, לאחר שצפית בפרופיל וקיבלת מידע על המאפיינים וההעדפות של אותו אדם, עליך לבחור כיצד אתה הולך לפעול מולו. זכור, גם האדם השני יבחר פעולה, אך כל אחד מכם לא יוכל לראות את הבחירה של השני. התוצאה תקבע רק לאחר מכן.</t>
-  </si>
-  <si>
-    <t>כעת, לאחר שצפית בפרופיל וקיבלת מידע על המאפיינים וההעדפות של אותו אדם, עליך לבחור כיצד את הולכת לפעול מולו. זיכרי, גם האדם השני יבחר פעולה, אך כל אחד מכם לא יוכל לראות את הבחירה של השני. התוצאה תקבע רק לאחר מכן.</t>
   </si>
   <si>
     <t>לפני שתתחיל בניסוי נבקש מספר דברים: 
@@ -452,6 +435,37 @@
   </si>
   <si>
     <t>לאחר שתצפה בתכונות והמאפיינים של המשתתף האחר, תוצג בפניך טבלה דומה לזו שהוצגה קודם אשר מתארת משחק בו קיימות שתי אפשרויות בחירה שלך ושתי אפשרויות בחירה של האחר או האחרת. תצטרך להחליט כיצד לפעול מול האדם אשר בתכונות ובמאפיינים שלו צפית, והאדם האחר יצטרף להחליט כיצד לפעול מולך. אם תרצה להתרשם פעם נוספת לפני החלטתך מהתכונות והמאפיינים של האדם האחר, תוכל ללחוץ על הכפתור "הצג שוב". אחרי שתבחר באחת האפשרויות, יוצג בפניך אדם אחר.</t>
+  </si>
+  <si>
+    <t>כעת, לאחר שצפית בפרופיל שלך ושל האדם וקיבלת מידע על המאפיינים וההעדפות של אותו אדם, &lt;span&gt;עליך לבחור כיצד אתה הולך לפעול מולו.&lt;/span&gt;
+ &lt;br&gt;זכור, גם האדם השני יבחר פעולה, אך כל אחד מכם לא יוכל לראות את הבחירה של השני. התוצאה תקבע רק לאחר מכן.</t>
+  </si>
+  <si>
+    <t>כעת, לאחר שצפית בפרופיל שלך ושל האדם וקיבלת מידע על המאפיינים וההעדפות של אותו אדם, &lt;span&gt;עליך לבחור כיצד את הולכת לפעול מולו.&lt;/span&gt;
+ &lt;br&gt;זיכרי, גם האדם השני יבחר פעולה, אך כל אחד מכם לא יוכל לראות את הבחירה של השני. התוצאה תקבע רק לאחר מכן.</t>
+  </si>
+  <si>
+    <t>reportText1</t>
+  </si>
+  <si>
+    <t>reportText2</t>
+  </si>
+  <si>
+    <t>reportText3</t>
+  </si>
+  <si>
+    <t>כעת מוצג לך הפרופיל שלך בכתום</t>
+  </si>
+  <si>
+    <t>כעת התווסף הפרופיל של האדם האחר בסגול</t>
+  </si>
+  <si>
+    <t>הנתונים נשמרו, קרא כעת לנסיין.ית על מנת שהיא או הוא יוכלו ליסגור את הניסוי.
+בעוד מספר דקות תקבל תשלום או קרדיט.</t>
+  </si>
+  <si>
+    <t>הנתונים נשמרו, קראי כעת לנסיין.ית על מנת שהיא או הוא יוכלו ליסגור את הניסוי.
+בעוד מספר דקות תקבלי תשלום או קרדיט.</t>
   </si>
 </sst>
 </file>
@@ -812,22 +826,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" customWidth="1"/>
-    <col min="3" max="3" width="51.33203125" customWidth="1"/>
-    <col min="4" max="4" width="48.44140625" customWidth="1"/>
-    <col min="5" max="5" width="49.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="51.28515625" customWidth="1"/>
+    <col min="4" max="4" width="48.42578125" customWidth="1"/>
+    <col min="5" max="5" width="49.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -851,42 +865,42 @@
       <c r="I1" s="2"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -894,21 +908,21 @@
       <c r="I3" s="2"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -916,21 +930,21 @@
       <c r="I4" s="2"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -938,21 +952,21 @@
       <c r="I5" s="2"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -960,21 +974,21 @@
       <c r="I6" s="2"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -982,21 +996,21 @@
       <c r="I7" s="2"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1004,21 +1018,21 @@
       <c r="I8" s="2"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1026,21 +1040,21 @@
       <c r="I9" s="2"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1048,7 +1062,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>1</v>
       </c>
@@ -1056,20 +1070,20 @@
         <v>8</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>1</v>
       </c>
@@ -1077,20 +1091,20 @@
         <v>22</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>1</v>
       </c>
@@ -1111,7 +1125,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>1</v>
       </c>
@@ -1119,20 +1133,20 @@
         <v>15</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>1</v>
       </c>
@@ -1153,7 +1167,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>1</v>
       </c>
@@ -1174,28 +1188,28 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="270" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>2</v>
       </c>
@@ -1203,22 +1217,22 @@
         <v>8</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>3</v>
       </c>
@@ -1226,20 +1240,20 @@
         <v>8</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>3</v>
       </c>
@@ -1260,7 +1274,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -1281,7 +1295,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>3</v>
       </c>
@@ -1302,7 +1316,7 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>9</v>
       </c>
@@ -1310,20 +1324,20 @@
         <v>8</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>9</v>
       </c>
@@ -1331,20 +1345,20 @@
         <v>8</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>9</v>
       </c>
@@ -1352,20 +1366,20 @@
         <v>28</v>
       </c>
       <c r="C25" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>4</v>
       </c>
@@ -1373,19 +1387,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -1393,20 +1407,20 @@
         <v>8</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>4</v>
       </c>
@@ -1414,20 +1428,20 @@
         <v>8</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>5</v>
       </c>
@@ -1448,7 +1462,7 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>5</v>
       </c>
@@ -1469,96 +1483,96 @@
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>91</v>
+        <v>118</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>108</v>
+        <v>119</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>85</v>
@@ -1567,299 +1581,341 @@
         <v>85</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>79</v>
-      </c>
-      <c r="B41" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" t="s">
-        <v>104</v>
-      </c>
-      <c r="D41" t="s">
-        <v>104</v>
-      </c>
-      <c r="E41" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>79</v>
-      </c>
-      <c r="B42" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" t="s">
-        <v>118</v>
-      </c>
-      <c r="D42" t="s">
-        <v>118</v>
-      </c>
-      <c r="E42" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D43" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E43" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B44" t="s">
         <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="D44" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="E44" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" t="s">
+        <v>93</v>
+      </c>
+      <c r="E45" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46" t="s">
+        <v>94</v>
+      </c>
+      <c r="E46" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" t="s">
+        <v>107</v>
+      </c>
+      <c r="D47" t="s">
+        <v>107</v>
+      </c>
+      <c r="E47" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48" t="s">
+        <v>78</v>
+      </c>
+      <c r="C48" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" t="s">
+        <v>108</v>
+      </c>
+      <c r="E48" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" t="s">
+        <v>89</v>
+      </c>
+      <c r="E49" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" t="s">
+        <v>92</v>
+      </c>
+      <c r="D50" t="s">
+        <v>92</v>
+      </c>
+      <c r="E50" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+    </row>
+    <row r="53" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B45" t="s">
-        <v>80</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="C53" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E53" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="D45" t="s">
-        <v>112</v>
-      </c>
-      <c r="E45" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>79</v>
-      </c>
-      <c r="B46" t="s">
-        <v>81</v>
-      </c>
-      <c r="C46" t="s">
-        <v>113</v>
-      </c>
-      <c r="D46" t="s">
-        <v>113</v>
-      </c>
-      <c r="E46" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>79</v>
-      </c>
-      <c r="B47" t="s">
-        <v>95</v>
-      </c>
-      <c r="C47" t="s">
-        <v>94</v>
-      </c>
-      <c r="D47" t="s">
-        <v>94</v>
-      </c>
-      <c r="E47" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>79</v>
-      </c>
-      <c r="B48" t="s">
-        <v>96</v>
-      </c>
-      <c r="C48" t="s">
-        <v>97</v>
-      </c>
-      <c r="D48" t="s">
-        <v>97</v>
-      </c>
-      <c r="E48" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>79</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>79</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-    </row>
-    <row r="51" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>79</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/ipa_2/myUtils/instructions.xlsx
+++ b/ipa_2/myUtils/instructions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4E8698-1AAF-4022-BFEE-8556D2117FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B4CE56-3DE9-4D49-9BD2-7F71979D1B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="302" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="302" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="134">
   <si>
     <t>phase</t>
   </si>
@@ -249,9 +249,6 @@
   </si>
   <si>
     <t>הצג שוב</t>
-  </si>
-  <si>
-    <t>המשך לפרופיל הבא</t>
   </si>
   <si>
     <t>בחלק זה של הניסוי זה תתבקש לדרג את המאפיינים שלך, אלא שהפעם תתבקש לדרג את המאפיינים, לא כפי שאתה כעת, אלא כפי שהיית רוצה להיות באופן אידאלי.&lt;br&gt;
@@ -348,9 +345,6 @@
     <t>השלב הבא</t>
   </si>
   <si>
-    <t>יפה מאוד! כאשר אתה לוחץ על אחת השורות, זה אומר שבחרת באפשרות הזו. כמה שתקבל תלוי במה יבחר האדם השני. בזמן שאתה מבצע את בחירתך אינך יכול לראות מה האדם השני בחר, אך גם כשאר השחקן השני בוחר, אתה לא יכול לראות את הבחירה שלו. התוצאות יקבעו רק לאחר מכן. בוא נמשיך בלמידה - לחץ עכשיו על האופציה העליונה.</t>
-  </si>
-  <si>
     <t>מעולה! כעת, ענה על השאלות שמופיעות מטה. בכל שאלה תצטרך לומר כמה אתה או האדם האחר יקבלו עבור שילוב מסוים של שתי אפשרויות, הבחירה שלך והבחירה של האחר.</t>
   </si>
   <si>
@@ -374,21 +368,6 @@
   </si>
   <si>
     <t>במהלך הניסוי תוצגנה מספר סיטואציות המערבות שני אנשים שבהן כל אחד יכול להרוויח סכום כספי. לכל סיטואציה קיימות שתי אפשרויות בחירה שלך ושתי אפשרויות בחירה של האחר או האחרת. לכל שילוב של בחירות ישנה תוצאה מספרית המיועדת עבורך ותוצאה מספרית המיועדת עבור האחר או האחרת. אפשרויות הבחירה והתוצאות השונות מיוצגות בטבלה. ליחצי על הכפתור "הצג טבלה" על מנת להתבונן בסיטואציה לדוגמה.</t>
-  </si>
-  <si>
-    <t>במהלך הניסוי זהות המשתתפים האחרים, כמו גם הזהות שלך תשמר בסודיות מוחלטת, אם זאת כדי לאפשר לכולם להכיר מעט אחד את השני יוצגו התכונות והמאפיינים האישיים אותן דירג כל נבדק בעצמו. גם דירוגי התכונות והמאפיינים שלך יוצגו בפני נבדקים האחרים, תוך שמירת זהותך בסודיות מלאה (כלומר, נבדקים אחרים יוכלו לראות את דירוגי התוכנות, אך הם לא יוכלו לדעת למי תכונות אלו שייכות).</t>
-  </si>
-  <si>
-    <t>מיד יוצג פרופיל של משתתף חדש. התבונן היטב בהעדפות והמאפיינים השונים ונסה להכיר את אותו אדם.</t>
-  </si>
-  <si>
-    <t>מיד יוצג פרופיל של משתתף חדש. התבונני היטב בהעדפות והמאפיינים השונים ונסה להכיר את אותו אדם.</t>
-  </si>
-  <si>
-    <t>בניסוי זה תתמודד לא רק מול דוגמאות תיאורטיות כמו הטבלה שהוצגה זה עתה, אלא גם מול אנשים אמיתיים! בסוף הניסוי יוגרל משחק אחד ולפי שילוב הבחירות שלך ושל הנבדק האחר אשר יתמודד מולך במשחק זה יחושב הבונוס הכספי אותו תקבל. שים לב, הבונוס הכספי ינוע בין 0 עד 50 ש''ח נוספים על התשלום הרגיל על ההשתתפות!</t>
-  </si>
-  <si>
-    <t>בניסוי זה תתמודדי לא רק מול דוגמאות תיאורטיות כמו הטבלה שהוצגה זה עתה, אלא גם מול אנשים אמיתיים! בסוף הניסוי יוגרל משחק אחד ולפי שילוב הבחירות שלך ושל הנבדק האחר אשר יתמודד מולך במשחק זה יחושב הבונוס הכספי אותו תקבלי. שימי לב, הבונוס הכספי ינוע בין 0 עד 50 ש''ח נוספים על התשלום הרגיל על ההשתתפות!</t>
   </si>
   <si>
     <t>שלום רב,
@@ -428,23 +407,6 @@
     <t>את בחרת, אם המשתתף האחר יבחר, את תקבלי, והאחר יקבל, ואם המשתתף אחר יבחר</t>
   </si>
   <si>
-    <t>כעת, לצורך הדוגמה, אתה יכול לבחור בין {} , לבין {} וכך גם האדם השני. כל אחד מכם בוחר לפי ראות עיניו, ומתוך הניסיון להגיע לתוצאה הטובה ביותר עבורו. אתה יכול לבחור או בשורה הראשונה ({}) או בשורה השניה ({}). כך גם האדם השני יכול לבחור בין הטור הימני לשמאלי. בכל צירוף של שתי בחירות רשום כמה אתה תקבל וכמה האחר. התוצאות האפשריות שלך רשומות תמיד מצד שמאל בכל תא, והן יופיעו בצבע סגול, התוצאות האפשריות של האחר תמיד יופיעו מצד ימין בכל תא והן יופיעו בצבע כתום. לצורך בדיקת הבנה - בחר כעת את השורה התחונה - {}.</t>
-  </si>
-  <si>
-    <t>לאחר שתצפי בתכונות והמאפיינים של המשתתף האחר, תוצג בפניך טבלה דומה לזו שהוצגה קודם אשר מתארת משחק בו קיימות שתי אפשרויות בחירה שלך ושתי אפשרויות בחירה של האחר או האחרת. תצטרכי להחליט כיצד לפעול מול האדם אשר בתכונות ובמאפיינים שלו צפית, והאדם האחר יצטרף להחליט כיצד לפעול מולך. אם תרצי להתרשם פעם נוספת לפני החלטתך מהתכונות והמאפיינים של האדם האחר, תוכלי ללחוץ על הכפתור "הצג שוב". אחרי שתבחרי באחת האפשרויות, יוצג בפניך אדם אחר.</t>
-  </si>
-  <si>
-    <t>לאחר שתצפה בתכונות והמאפיינים של המשתתף האחר, תוצג בפניך טבלה דומה לזו שהוצגה קודם אשר מתארת משחק בו קיימות שתי אפשרויות בחירה שלך ושתי אפשרויות בחירה של האחר או האחרת. תצטרך להחליט כיצד לפעול מול האדם אשר בתכונות ובמאפיינים שלו צפית, והאדם האחר יצטרף להחליט כיצד לפעול מולך. אם תרצה להתרשם פעם נוספת לפני החלטתך מהתכונות והמאפיינים של האדם האחר, תוכל ללחוץ על הכפתור "הצג שוב". אחרי שתבחר באחת האפשרויות, יוצג בפניך אדם אחר.</t>
-  </si>
-  <si>
-    <t>כעת, לאחר שצפית בפרופיל שלך ושל האדם וקיבלת מידע על המאפיינים וההעדפות של אותו אדם, &lt;span&gt;עליך לבחור כיצד אתה הולך לפעול מולו.&lt;/span&gt;
- &lt;br&gt;זכור, גם האדם השני יבחר פעולה, אך כל אחד מכם לא יוכל לראות את הבחירה של השני. התוצאה תקבע רק לאחר מכן.</t>
-  </si>
-  <si>
-    <t>כעת, לאחר שצפית בפרופיל שלך ושל האדם וקיבלת מידע על המאפיינים וההעדפות של אותו אדם, &lt;span&gt;עליך לבחור כיצד את הולכת לפעול מולו.&lt;/span&gt;
- &lt;br&gt;זיכרי, גם האדם השני יבחר פעולה, אך כל אחד מכם לא יוכל לראות את הבחירה של השני. התוצאה תקבע רק לאחר מכן.</t>
-  </si>
-  <si>
     <t>reportText1</t>
   </si>
   <si>
@@ -452,12 +414,6 @@
   </si>
   <si>
     <t>reportText3</t>
-  </si>
-  <si>
-    <t>כעת מוצג לך הפרופיל שלך בכתום</t>
-  </si>
-  <si>
-    <t>כעת התווסף הפרופיל של האדם האחר בסגול</t>
   </si>
   <si>
     <t>הנתונים נשמרו, קרא כעת לנסיין.ית על מנת שהיא או הוא יוכלו ליסגור את הניסוי.
@@ -466,6 +422,75 @@
   <si>
     <t>הנתונים נשמרו, קראי כעת לנסיין.ית על מנת שהיא או הוא יוכלו ליסגור את הניסוי.
 בעוד מספר דקות תקבלי תשלום או קרדיט.</t>
+  </si>
+  <si>
+    <t>יפה מאוד! כאשר אתה לוחץ על אחת השורות, זה אומר שבחרת באפשרות הזו. הערך שתקבל תלוי בבחירה של המשתתף האחר. בזמן שאתה מבצע את בחירתך אינך יכול לראות מה המשתתף האחר בוחר, וגם הוא לא יכול לראות את בחירתך. התוצאות יקבעו על פי הבחירה של שניכם. בוא נמשיך בלמידה - לחץ עכשיו על האפשרות העליונה - Ω.</t>
+  </si>
+  <si>
+    <t>יפה מאוד! כאשר את לוחצת על אחת השורות, זה אומר שבחרת באפשרות הזו. הערך שתקבלי תלוי בבחירה של המשתתף האחר. בזמן שאת מבצעת את בחירתך אינך יכול לראות מה המשתתף האחר בוחר, וגם הוא לא יכול לראות את בחירתך. התוצאות יקבעו על פי הבחירה של שניכם. בואי נמשיך בלמידה - לחצי עכשיו על האפשרות העליונה - Ω.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> בניסוי זה תתמודדי לא רק מול דוגמאות תיאורטיות כמו הטבלה שהוצגה זה עתה, אלא גם מול אנשים אמיתיים! בסוף הניסוי יוגרל משחק אחד ולפי שילוב הבחירות שלך ושל הנבדק האחר אשר יתמודד מולך במשחק זה יחושב הבונוס הכספי אותו תקבלי. שימי לב, הבונוס הכספי ינוע בין 0 עד 50 ש''ח נוספים על התשלום הרגיל עבור ההשתתפות!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> בניסוי זה תתמודד לא רק מול דוגמאות תיאורטיות כמו הטבלה שהוצגה זה עתה, אלא גם מול אנשים אמיתיים! בסוף הניסוי יוגרל משחק אחד ולפי שילוב הבחירות שלך ושל הנבדק האחר אשר יתמודד מולך במשחק זה יחושב הבונוס הכספי אותו תקבל. שים לב, הבונוס הכספי ינוע בין 0 עד 50 ש''ח נוספים על התשלום הרגיל עבור ההשתתפות!</t>
+  </si>
+  <si>
+    <t>במהלך הניסוי זהות המשתתפים האחרים, כמו גם הזהות שלך תשמר בסודיות מוחלטת, אם זאת כדי לאפשר למשתתפים להכיר מעט אחד את השני יוצגו התכונות והמאפיינים האישיים אותן דירג כל נבדק כדי לתאר את עצמו. גם דירוגי התכונות והמאפיינים שלך יוצגו בפני נבדקים אחרים, תוך שמירת זהותך בסודיות מלאה (כלומר, נבדקים אחרים יוכלו לראות את דירוגי התכונות, אך הם לא יוכלו לדעת למי תכונות אלו שייכות).</t>
+  </si>
+  <si>
+    <t>כעת התווסף הפרופיל של המשתתף האחר בכתום</t>
+  </si>
+  <si>
+    <t>כעת, לאחר שצפית בפרופיל שלך ושל המשתתף האחר, עליך לבחור באחת האפשרויות.</t>
+  </si>
+  <si>
+    <t>אישור הבחירה והמשך</t>
+  </si>
+  <si>
+    <t>כעת מוצג הפרופיל שלך בסגול</t>
+  </si>
+  <si>
+    <t>כעת, לצורך הדוגמה, את יכולה לבחור בין {} , לבין {} וכך גם המשתתך השני. כל אחד מכם בוחר לפי ראות עיניו, ומתוך הניסיון להגיע לתוצאה הרצויה ביותר עבורו. את יכולה לבחור או בשורה הראשונה ({}) או בשורה השניה ({}). כך גם המשתתף השני יכול לבחור בין הטור הימני לשמאלי. בכל צירוף של שתי בחירות רשום כמה את תקבלי וכמה המשתתף האחר. התוצאות האפשריות שלך רשומות תמיד מצד שמאל בכל תא, והן יופיעו בצבע סגול, התוצאות האפשריות של המשתתף האחר תמיד יופיעו מצד ימין בכל תא והן יופיעו בצבע כתום. לצורך בדיקת הבנה - בחרי כעת את השורה התחונה - {}.</t>
+  </si>
+  <si>
+    <t>כעת, לצורך הדוגמה, אתה יכול לבחור בין {} , לבין {} וכך גם המשתתך השני. כל אחד מכם בוחר לפי ראות עיניו, ומתוך הניסיון להגיע לתוצאה הרצויה ביותר עבורו. אתה יכול לבחור או בשורה הראשונה ({}) או בשורה השניה ({}). כך גם המשתתף השני יכול לבחור בין הטור הימני לשמאלי. בכל צירוף של שתי בחירות רשום כמה אתה תקבל וכמה המשתתף האחר. התוצאות האפשריות שלך רשומות תמיד מצד שמאל בכל תא, והן יופיעו בצבע סגול, התוצאות האפשריות של המשתתף האחר תמיד יופיעו מצד ימין בכל תא והן יופיעו בצבע כתום. לצורך בדיקת הבנה - בחר כעת את השורה התחונה - {}.</t>
+  </si>
+  <si>
+    <t>מיד יוצג פרופיל של משתתף חדש. התבונני היטב בתכונות ובמאפיינים השונים ונסה להכיר את אותו אדם.</t>
+  </si>
+  <si>
+    <t>מיד יוצג פרופיל של משתתף חדש. התבונן היטב בתכונות ובמאפיינים השונים ונסה להכיר את אותו אדם.</t>
+  </si>
+  <si>
+    <t>התכונות והמאפיינים</t>
+  </si>
+  <si>
+    <t>בתכונות ובמאפיינים</t>
+  </si>
+  <si>
+    <t>a_features_text_1</t>
+  </si>
+  <si>
+    <t>a_features_text_2</t>
+  </si>
+  <si>
+    <t>c_features_text_1</t>
+  </si>
+  <si>
+    <t>c_features_text_2</t>
+  </si>
+  <si>
+    <t>בהעדפות</t>
+  </si>
+  <si>
+    <t>ההעדפות</t>
+  </si>
+  <si>
+    <t>לאחר שתצפי בתכונות ובמאפיינים של המשתתף האחר, תוצג בפניך טבלה אשר מתארת משחק בו קיימות שתי אפשרויות בחירה שלך ושתי אפשרויות בחירה של המשתתף או המשתתפת האחר.ת. תצטרכי להחליט כיצד לפעול מול המשתתף אשר בתכונות ובמאפיינים שלו צפית, והמשתתף האחר יצטרך להחליט כיצד לפעול מולך. אחרי שתבחרי באחת האפשרויות, יוצג בפניך משחק חדש ומשתתף חדש.</t>
+  </si>
+  <si>
+    <t>לאחר שתצפה בתכונות ובמאפיינים של המשתתף האחר, תוצג בפניך טבלה אשר מתארת משחק בו קיימות שתי אפשרויות בחירה שלך ושתי אפשרויות בחירה של המשתתף או המשתתפת האחר.ת. תצטרכך להחליט כיצד לפעול מול המשתתף אשר בתכונות ובמאפיינים שלו צפית, והמשתתף האחר יצטרך להחליט כיצד לפעול מולך. אחרי שתבחר באחת האפשרויות, יוצג בפניך משחק חדש ומשתתף חדש.</t>
   </si>
 </sst>
 </file>
@@ -545,7 +570,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -826,22 +853,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" customWidth="1"/>
-    <col min="3" max="3" width="51.28515625" customWidth="1"/>
-    <col min="4" max="4" width="48.42578125" customWidth="1"/>
-    <col min="5" max="5" width="49.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.5546875" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" customWidth="1"/>
+    <col min="3" max="3" width="51.33203125" customWidth="1"/>
+    <col min="4" max="4" width="48.44140625" customWidth="1"/>
+    <col min="5" max="5" width="49.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -865,7 +892,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>46</v>
       </c>
@@ -886,7 +913,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>46</v>
       </c>
@@ -908,7 +935,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>46</v>
       </c>
@@ -930,7 +957,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>46</v>
       </c>
@@ -952,7 +979,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>46</v>
       </c>
@@ -960,13 +987,13 @@
         <v>69</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -974,7 +1001,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>46</v>
       </c>
@@ -996,7 +1023,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>46</v>
       </c>
@@ -1018,7 +1045,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>46</v>
       </c>
@@ -1040,7 +1067,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>46</v>
       </c>
@@ -1062,792 +1089,812 @@
       <c r="I10" s="2"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="270" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="4"/>
+        <v>87</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>105</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="83.4" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>113</v>
+      </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>121</v>
+        <v>8</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>122</v>
+        <v>8</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>117</v>
+        <v>23</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>103</v>
+        <v>24</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>86</v>
+        <v>106</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+    </row>
+    <row r="43" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B44" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C44" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D44" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E44" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B45" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C45" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D45" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E45" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+    <row r="46" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B46" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>76</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="C46" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47" t="s">
         <v>8</v>
       </c>
-      <c r="C43" t="s">
-        <v>99</v>
-      </c>
-      <c r="D43" t="s">
-        <v>99</v>
-      </c>
-      <c r="E43" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>76</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="C47" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" t="s">
+        <v>97</v>
+      </c>
+      <c r="E47" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48" t="s">
         <v>8</v>
       </c>
-      <c r="C44" t="s">
-        <v>113</v>
-      </c>
-      <c r="D44" t="s">
-        <v>113</v>
-      </c>
-      <c r="E44" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>76</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="C48" t="s">
+        <v>121</v>
+      </c>
+      <c r="D48" t="s">
+        <v>121</v>
+      </c>
+      <c r="E48" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" t="s">
         <v>8</v>
       </c>
-      <c r="C45" t="s">
-        <v>93</v>
-      </c>
-      <c r="D45" t="s">
-        <v>93</v>
-      </c>
-      <c r="E45" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>76</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="C49" t="s">
+        <v>111</v>
+      </c>
+      <c r="D49" t="s">
+        <v>111</v>
+      </c>
+      <c r="E49" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50" t="s">
         <v>8</v>
-      </c>
-      <c r="C46" t="s">
-        <v>94</v>
-      </c>
-      <c r="D46" t="s">
-        <v>94</v>
-      </c>
-      <c r="E46" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>76</v>
-      </c>
-      <c r="B47" t="s">
-        <v>77</v>
-      </c>
-      <c r="C47" t="s">
-        <v>107</v>
-      </c>
-      <c r="D47" t="s">
-        <v>107</v>
-      </c>
-      <c r="E47" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>76</v>
-      </c>
-      <c r="B48" t="s">
-        <v>78</v>
-      </c>
-      <c r="C48" t="s">
-        <v>108</v>
-      </c>
-      <c r="D48" t="s">
-        <v>108</v>
-      </c>
-      <c r="E48" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>76</v>
-      </c>
-      <c r="B49" t="s">
-        <v>90</v>
-      </c>
-      <c r="C49" t="s">
-        <v>89</v>
-      </c>
-      <c r="D49" t="s">
-        <v>89</v>
-      </c>
-      <c r="E49" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>76</v>
-      </c>
-      <c r="B50" t="s">
-        <v>91</v>
       </c>
       <c r="C50" t="s">
         <v>92</v>
@@ -1859,63 +1906,131 @@
         <v>92</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" t="s">
         <v>76</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="C51" t="s">
+        <v>100</v>
+      </c>
+      <c r="D51" t="s">
+        <v>100</v>
+      </c>
+      <c r="E51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>75</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" t="s">
+        <v>101</v>
+      </c>
+      <c r="D52" t="s">
+        <v>101</v>
+      </c>
+      <c r="E52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>75</v>
+      </c>
+      <c r="B53" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" t="s">
+        <v>88</v>
+      </c>
+      <c r="D53" t="s">
+        <v>88</v>
+      </c>
+      <c r="E53" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54" t="s">
+        <v>90</v>
+      </c>
+      <c r="C54" t="s">
+        <v>91</v>
+      </c>
+      <c r="D54" t="s">
+        <v>91</v>
+      </c>
+      <c r="E54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>75</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>75</v>
+      </c>
+      <c r="B56" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C56" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D56" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E51" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>76</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-    </row>
-    <row r="53" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>76</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>112</v>
+      <c r="E56" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+    </row>
+    <row r="57" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>75</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
